--- a/capiq_data/in_process_data/IQ277966.xlsx
+++ b/capiq_data/in_process_data/IQ277966.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156993BD-E7A4-43AD-9474-9F25A85F28B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188B1C3-C145-4B9E-A1BC-0CC57DE551DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"72cf6f60-ed78-46f3-8599-b7e491d57cc9"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"731c34ac-3f7b-4d42-89b9-012475c6bb09"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>141.917</v>
+        <v>36.924999999999997</v>
       </c>
       <c r="D2">
-        <v>339.70800000000003</v>
+        <v>83.497</v>
       </c>
       <c r="E2">
-        <v>851.02700000000004</v>
+        <v>24.533000000000001</v>
       </c>
       <c r="F2">
-        <v>281.435</v>
+        <v>76.412000000000006</v>
       </c>
       <c r="G2">
-        <v>3943.5039999999999</v>
+        <v>103.306</v>
       </c>
       <c r="H2">
-        <v>13331.923000000001</v>
+        <v>2394.8519999999999</v>
       </c>
       <c r="I2">
-        <v>313.80599999999998</v>
+        <v>57.097000000000001</v>
       </c>
       <c r="J2">
-        <v>4554.1580000000004</v>
+        <v>1158.9280000000001</v>
       </c>
       <c r="K2">
-        <v>92.186999999999998</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>405.99299999999999</v>
+        <v>57.097000000000001</v>
       </c>
       <c r="O2">
-        <v>5185.8760000000002</v>
+        <v>1216.0250000000001</v>
       </c>
       <c r="P2">
-        <v>4646.3450000000003</v>
+        <v>1158.9280000000001</v>
       </c>
       <c r="Q2">
-        <v>984.06600000000003</v>
+        <v>53.719000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>8146.0469999999996</v>
+        <v>1178.827</v>
       </c>
       <c r="U2">
-        <v>1036.701</v>
+        <v>58.622999999999998</v>
       </c>
       <c r="V2">
-        <v>149.77000000000001</v>
+        <v>50.258000000000003</v>
       </c>
       <c r="W2">
-        <v>-156.357</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>938.26</v>
+        <v>-44.598999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>108.242</v>
+        <v>-0.41199999999999998</v>
       </c>
       <c r="AA2">
-        <v>141.917</v>
+        <v>36.924999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>70.093000000000004</v>
+        <v>26.024000000000001</v>
       </c>
       <c r="D3">
-        <v>331.12799999999999</v>
+        <v>76.59</v>
       </c>
       <c r="E3">
-        <v>866.00800000000004</v>
+        <v>14.91</v>
       </c>
       <c r="F3">
-        <v>284.28300000000002</v>
+        <v>69.388999999999996</v>
       </c>
       <c r="G3">
-        <v>7278.6679999999997</v>
+        <v>195.08500000000001</v>
       </c>
       <c r="H3">
-        <v>17499.651999999998</v>
+        <v>2343.1959999999999</v>
       </c>
       <c r="I3">
-        <v>312.86900000000003</v>
+        <v>59.77</v>
       </c>
       <c r="J3">
-        <v>7606.6040000000003</v>
+        <v>1111.83</v>
       </c>
       <c r="K3">
-        <v>90.697999999999993</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-21.137</v>
+        <v>-47.277000000000001</v>
       </c>
       <c r="N3">
-        <v>412.25599999999997</v>
+        <v>59.77</v>
       </c>
       <c r="O3">
-        <v>8232.2039999999997</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="P3">
-        <v>7704.7309999999998</v>
+        <v>1111.83</v>
       </c>
       <c r="Q3">
-        <v>2951.9209999999998</v>
+        <v>-52.41</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>9267.4480000000003</v>
+        <v>1171.596</v>
       </c>
       <c r="U3">
-        <v>3988.6219999999998</v>
+        <v>6.2130000000000001</v>
       </c>
       <c r="V3">
-        <v>149.827</v>
+        <v>50.198</v>
       </c>
       <c r="W3">
-        <v>-184.209</v>
+        <v>-44.966000000000001</v>
       </c>
       <c r="X3">
-        <v>3377.5970000000002</v>
+        <v>-91.042000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.63700000000000001</v>
+        <v>10.696999999999999</v>
       </c>
       <c r="AA3">
-        <v>70.093000000000004</v>
+        <v>26.024000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>228.75899999999999</v>
+        <v>34.9</v>
       </c>
       <c r="D4">
-        <v>482.4</v>
+        <v>83.414000000000001</v>
       </c>
       <c r="E4">
-        <v>6913.433</v>
+        <v>46.252000000000002</v>
       </c>
       <c r="F4">
-        <v>435.80399999999997</v>
+        <v>76.221000000000004</v>
       </c>
       <c r="G4">
-        <v>7345.4669999999996</v>
+        <v>62.383000000000003</v>
       </c>
       <c r="H4">
-        <v>17693.058000000001</v>
+        <v>2344.6930000000002</v>
       </c>
       <c r="I4">
-        <v>579.91600000000005</v>
+        <v>53.89</v>
       </c>
       <c r="J4">
-        <v>7496.4589999999998</v>
+        <v>976.66899999999998</v>
       </c>
       <c r="K4">
-        <v>89.465999999999994</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>670.48800000000006</v>
+        <v>68.89</v>
       </c>
       <c r="O4">
-        <v>8371.7900000000009</v>
+        <v>1045.559</v>
       </c>
       <c r="P4">
-        <v>7585.9250000000002</v>
+        <v>991.66899999999998</v>
       </c>
       <c r="Q4">
-        <v>-3712.4169999999999</v>
+        <v>9.9179999999999993</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9321.268</v>
+        <v>1299.134</v>
       </c>
       <c r="U4">
-        <v>276.20499999999998</v>
+        <v>16.131</v>
       </c>
       <c r="V4">
-        <v>282.988</v>
+        <v>45.027000000000001</v>
       </c>
       <c r="W4">
-        <v>-200.70599999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-306.25700000000001</v>
+        <v>-27.334</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-94.078999999999994</v>
+        <v>-0.629</v>
       </c>
       <c r="AA4">
-        <v>228.75899999999999</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>172.19499999999999</v>
+        <v>24.073</v>
       </c>
       <c r="D5">
-        <v>441.22899999999998</v>
+        <v>83.385000000000005</v>
       </c>
       <c r="E5">
-        <v>6966.2539999999999</v>
+        <v>19.745999999999999</v>
       </c>
       <c r="F5">
-        <v>383.56700000000001</v>
+        <v>75.998999999999995</v>
       </c>
       <c r="G5">
-        <v>7162.4380000000001</v>
+        <v>216.04900000000001</v>
       </c>
       <c r="H5">
-        <v>17439.377</v>
+        <v>2443.511</v>
       </c>
       <c r="I5">
-        <v>248.49799999999999</v>
+        <v>56.994</v>
       </c>
       <c r="J5">
-        <v>7570.1369999999997</v>
+        <v>1062.1479999999999</v>
       </c>
       <c r="K5">
-        <v>89.325000000000003</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>349.67099999999999</v>
+        <v>70.994</v>
       </c>
       <c r="O5">
-        <v>8122.3249999999998</v>
+        <v>1133.1420000000001</v>
       </c>
       <c r="P5">
-        <v>7671.31</v>
+        <v>1076.1479999999999</v>
       </c>
       <c r="Q5">
-        <v>-231.345</v>
+        <v>-6.2949999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9317.0519999999997</v>
+        <v>1310.3689999999999</v>
       </c>
       <c r="U5">
-        <v>44.86</v>
+        <v>9.8360000000000003</v>
       </c>
       <c r="V5">
-        <v>154.10599999999999</v>
+        <v>56.250999999999998</v>
       </c>
       <c r="W5">
-        <v>-201.13300000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-99.08</v>
+        <v>33.445999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-22.071000000000002</v>
+        <v>-11.576000000000001</v>
       </c>
       <c r="AA5">
-        <v>172.19499999999999</v>
+        <v>24.073</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>67.843999999999994</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>457.339</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7021.0780000000004</v>
+        <v>29.132000000000001</v>
       </c>
       <c r="F6">
-        <v>388.291</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7312.6850000000004</v>
+        <v>57.558999999999997</v>
       </c>
       <c r="H6">
-        <v>17408.474999999999</v>
+        <v>2431.1529999999998</v>
       </c>
       <c r="I6">
-        <v>275.47800000000001</v>
+        <v>56.709000000000003</v>
       </c>
       <c r="J6">
-        <v>7640.9989999999998</v>
+        <v>1057.752</v>
       </c>
       <c r="K6">
-        <v>87.984999999999999</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>363.46300000000002</v>
+        <v>56.709000000000003</v>
       </c>
       <c r="O6">
-        <v>8187.8530000000001</v>
+        <v>1114.461</v>
       </c>
       <c r="P6">
-        <v>7728.9840000000004</v>
+        <v>1057.752</v>
       </c>
       <c r="Q6">
-        <v>-11.353999999999999</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>9220.6219999999994</v>
+        <v>1316.692</v>
       </c>
       <c r="U6">
-        <v>33.506</v>
+        <v>8.4079999999999995</v>
       </c>
       <c r="V6">
-        <v>137.24</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-201.64099999999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-119.13200000000001</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.47199999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>67.843999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>193.38</v>
+        <v>30.408999999999999</v>
       </c>
       <c r="D7">
-        <v>455.827</v>
+        <v>79.703999999999994</v>
       </c>
       <c r="E7">
-        <v>7068.1440000000002</v>
+        <v>21.183</v>
       </c>
       <c r="F7">
-        <v>388.49400000000003</v>
+        <v>72.415999999999997</v>
       </c>
       <c r="G7">
-        <v>7574.973</v>
+        <v>49.222000000000001</v>
       </c>
       <c r="H7">
-        <v>17725.319</v>
+        <v>2519.069</v>
       </c>
       <c r="I7">
-        <v>507.64499999999998</v>
+        <v>57.582999999999998</v>
       </c>
       <c r="J7">
-        <v>7621.192</v>
+        <v>1033.893</v>
       </c>
       <c r="K7">
-        <v>86.733999999999995</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-464.05700000000002</v>
+        <v>-114.34</v>
       </c>
       <c r="N7">
-        <v>606.226</v>
+        <v>168.583</v>
       </c>
       <c r="O7">
-        <v>8415.357</v>
+        <v>1202.4760000000001</v>
       </c>
       <c r="P7">
-        <v>7719.7730000000001</v>
+        <v>1144.893</v>
       </c>
       <c r="Q7">
-        <v>313.91899999999998</v>
+        <v>-1.7909999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>9309.9619999999995</v>
+        <v>1316.5930000000001</v>
       </c>
       <c r="U7">
-        <v>347.42500000000001</v>
+        <v>6.617</v>
       </c>
       <c r="V7">
-        <v>186.46799999999999</v>
+        <v>51.753</v>
       </c>
       <c r="W7">
-        <v>-211.06700000000001</v>
+        <v>-51.530999999999999</v>
       </c>
       <c r="X7">
-        <v>158.59700000000001</v>
+        <v>55.542999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2.7160000000000002</v>
+        <v>7.8550000000000004</v>
       </c>
       <c r="AA7">
-        <v>193.38</v>
+        <v>30.408999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>202.024</v>
+        <v>40.354999999999997</v>
       </c>
       <c r="D8">
-        <v>447.10599999999999</v>
+        <v>87.608999999999995</v>
       </c>
       <c r="E8">
-        <v>7118.4930000000004</v>
+        <v>20.963999999999999</v>
       </c>
       <c r="F8">
-        <v>377.05799999999999</v>
+        <v>80.379000000000005</v>
       </c>
       <c r="G8">
-        <v>7456.4319999999998</v>
+        <v>50.645000000000003</v>
       </c>
       <c r="H8">
-        <v>17789.768</v>
+        <v>2563.1120000000001</v>
       </c>
       <c r="I8">
-        <v>260.44099999999997</v>
+        <v>52.646999999999998</v>
       </c>
       <c r="J8">
-        <v>7570.8410000000003</v>
+        <v>1182.6600000000001</v>
       </c>
       <c r="K8">
-        <v>84.06</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>344.50099999999998</v>
+        <v>52.646999999999998</v>
       </c>
       <c r="O8">
-        <v>8098.8289999999997</v>
+        <v>1235.307</v>
       </c>
       <c r="P8">
-        <v>7654.9009999999998</v>
+        <v>1182.6600000000001</v>
       </c>
       <c r="Q8">
-        <v>-177.78899999999999</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9690.9390000000003</v>
+        <v>1327.8050000000001</v>
       </c>
       <c r="U8">
-        <v>169.636</v>
+        <v>8.9160000000000004</v>
       </c>
       <c r="V8">
-        <v>297.08300000000003</v>
+        <v>53.609000000000002</v>
       </c>
       <c r="W8">
-        <v>-211.785</v>
+        <v>-52.603000000000002</v>
       </c>
       <c r="X8">
-        <v>-192.476</v>
+        <v>6.0380000000000003</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-216.04599999999999</v>
+        <v>-7.8550000000000004</v>
       </c>
       <c r="AA8">
-        <v>202.024</v>
+        <v>40.354999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>196.108</v>
+        <v>37.241999999999997</v>
       </c>
       <c r="D9">
-        <v>468.06599999999997</v>
+        <v>89.427000000000007</v>
       </c>
       <c r="E9">
-        <v>7174.7659999999996</v>
+        <v>19.238</v>
       </c>
       <c r="F9">
-        <v>395.41300000000001</v>
+        <v>81.09</v>
       </c>
       <c r="G9">
-        <v>7646.8249999999998</v>
+        <v>308.11500000000001</v>
       </c>
       <c r="H9">
-        <v>18079.335999999999</v>
+        <v>2703.1010000000001</v>
       </c>
       <c r="I9">
-        <v>255.20699999999999</v>
+        <v>64.638999999999996</v>
       </c>
       <c r="J9">
-        <v>7834.82</v>
+        <v>1287.5029999999999</v>
       </c>
       <c r="K9">
-        <v>84.58</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>345.67</v>
+        <v>65.638999999999996</v>
       </c>
       <c r="O9">
-        <v>8351.4830000000002</v>
+        <v>1353.1420000000001</v>
       </c>
       <c r="P9">
-        <v>7919.634</v>
+        <v>1288.5029999999999</v>
       </c>
       <c r="Q9">
-        <v>-73.16</v>
+        <v>2.798</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9727.8529999999992</v>
+        <v>1349.9590000000001</v>
       </c>
       <c r="U9">
-        <v>96.475999999999999</v>
+        <v>11.714</v>
       </c>
       <c r="V9">
-        <v>237.40199999999999</v>
+        <v>68.558999999999997</v>
       </c>
       <c r="W9">
-        <v>-215.376</v>
+        <v>-54.011000000000003</v>
       </c>
       <c r="X9">
-        <v>26.594000000000001</v>
+        <v>90.108000000000004</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.52200000000000002</v>
+        <v>-12.882999999999999</v>
       </c>
       <c r="AA9">
-        <v>196.108</v>
+        <v>37.241999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>241.02799999999999</v>
+        <v>29.373999999999999</v>
       </c>
       <c r="D10">
-        <v>508.971</v>
+        <v>93.841999999999999</v>
       </c>
       <c r="E10">
-        <v>7221.8370000000004</v>
+        <v>22.382000000000001</v>
       </c>
       <c r="F10">
-        <v>438.28899999999999</v>
+        <v>85.14</v>
       </c>
       <c r="G10">
-        <v>7850.0469999999996</v>
+        <v>55.137</v>
       </c>
       <c r="H10">
-        <v>19915.555</v>
+        <v>2748.4169999999999</v>
       </c>
       <c r="I10">
-        <v>293.99400000000003</v>
+        <v>62.145000000000003</v>
       </c>
       <c r="J10">
-        <v>8613.5910000000003</v>
+        <v>1333.848</v>
       </c>
       <c r="K10">
-        <v>81.957999999999998</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>375.952</v>
+        <v>62.145000000000003</v>
       </c>
       <c r="O10">
-        <v>9161.7780000000002</v>
+        <v>1395.9929999999999</v>
       </c>
       <c r="P10">
-        <v>8695.5490000000009</v>
+        <v>1333.848</v>
       </c>
       <c r="Q10">
-        <v>151.197</v>
+        <v>-3.2189999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>10753.777</v>
+        <v>1352.424</v>
       </c>
       <c r="U10">
-        <v>247.673</v>
+        <v>8.4949999999999992</v>
       </c>
       <c r="V10">
-        <v>313.91699999999997</v>
+        <v>49.918999999999997</v>
       </c>
       <c r="W10">
-        <v>-227.078</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1500.7339999999999</v>
+        <v>15.851000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.86399999999999999</v>
+        <v>-126.447</v>
       </c>
       <c r="AA10">
-        <v>241.02799999999999</v>
+        <v>29.373999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>230.58500000000001</v>
+        <v>27.664000000000001</v>
       </c>
       <c r="D11">
-        <v>511.18599999999998</v>
+        <v>85.906999999999996</v>
       </c>
       <c r="E11">
-        <v>7277.1170000000002</v>
+        <v>19.318999999999999</v>
       </c>
       <c r="F11">
-        <v>438.5</v>
+        <v>78.587000000000003</v>
       </c>
       <c r="G11">
-        <v>7662.2089999999998</v>
+        <v>345.41899999999998</v>
       </c>
       <c r="H11">
-        <v>19732.731</v>
+        <v>2754.9569999999999</v>
       </c>
       <c r="I11">
-        <v>226.16300000000001</v>
+        <v>75.393000000000001</v>
       </c>
       <c r="J11">
-        <v>8479.0949999999993</v>
+        <v>1328.557</v>
       </c>
       <c r="K11">
-        <v>78.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-162.13499999999999</v>
+        <v>-202.005</v>
       </c>
       <c r="N11">
-        <v>305.07799999999997</v>
+        <v>76.393000000000001</v>
       </c>
       <c r="O11">
-        <v>8950.6720000000005</v>
+        <v>1404.95</v>
       </c>
       <c r="P11">
-        <v>8558.01</v>
+        <v>1329.557</v>
       </c>
       <c r="Q11">
-        <v>-200.126</v>
+        <v>4.9450000000000003</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>10782.058999999999</v>
+        <v>1350.0070000000001</v>
       </c>
       <c r="U11">
-        <v>47.546999999999997</v>
+        <v>13.44</v>
       </c>
       <c r="V11">
-        <v>214.35</v>
+        <v>72.156999999999996</v>
       </c>
       <c r="W11">
-        <v>-238.46700000000001</v>
+        <v>-55.75</v>
       </c>
       <c r="X11">
-        <v>-357.11599999999999</v>
+        <v>-33.829000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>28.597999999999999</v>
+        <v>-10.206</v>
       </c>
       <c r="AA11">
-        <v>230.58500000000001</v>
+        <v>27.664000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>213.40100000000001</v>
+        <v>36.914000000000001</v>
       </c>
       <c r="D12">
-        <v>512.23900000000003</v>
+        <v>92.417000000000002</v>
       </c>
       <c r="E12">
-        <v>7330.8630000000003</v>
+        <v>18.87</v>
       </c>
       <c r="F12">
-        <v>438.35199999999998</v>
+        <v>85.001999999999995</v>
       </c>
       <c r="G12">
-        <v>8001.6570000000002</v>
+        <v>341.959</v>
       </c>
       <c r="H12">
-        <v>20051.793000000001</v>
+        <v>2743.8220000000001</v>
       </c>
       <c r="I12">
-        <v>304.017</v>
+        <v>74.680000000000007</v>
       </c>
       <c r="J12">
-        <v>8697.8770000000004</v>
+        <v>1388.4290000000001</v>
       </c>
       <c r="K12">
-        <v>78.632999999999996</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>382.65100000000001</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="O12">
-        <v>9253.5339999999997</v>
+        <v>1466.1089999999999</v>
       </c>
       <c r="P12">
-        <v>8776.5110000000004</v>
+        <v>1391.4290000000001</v>
       </c>
       <c r="Q12">
-        <v>5.5670000000000002</v>
+        <v>-1.881</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>10798.259</v>
+        <v>1277.713</v>
       </c>
       <c r="U12">
-        <v>53.113999999999997</v>
+        <v>11.558999999999999</v>
       </c>
       <c r="V12">
-        <v>357.25200000000001</v>
+        <v>50.19</v>
       </c>
       <c r="W12">
-        <v>-238.98599999999999</v>
+        <v>-55.371000000000002</v>
       </c>
       <c r="X12">
-        <v>11.827</v>
+        <v>-49.399000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-16.37</v>
+        <v>10.234999999999999</v>
       </c>
       <c r="AA12">
-        <v>213.40100000000001</v>
+        <v>36.914000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>233.756</v>
+        <v>49.609000000000002</v>
       </c>
       <c r="D13">
-        <v>546.15700000000004</v>
+        <v>96.864000000000004</v>
       </c>
       <c r="E13">
-        <v>7379.2089999999998</v>
+        <v>17.093</v>
       </c>
       <c r="F13">
-        <v>470.74</v>
+        <v>89.100999999999999</v>
       </c>
       <c r="G13">
-        <v>8008.415</v>
+        <v>50.497999999999998</v>
       </c>
       <c r="H13">
-        <v>19889.508999999998</v>
+        <v>2832.4389999999999</v>
       </c>
       <c r="I13">
-        <v>292.786</v>
+        <v>75.231999999999999</v>
       </c>
       <c r="J13">
-        <v>8494.2690000000002</v>
+        <v>1344.6590000000001</v>
       </c>
       <c r="K13">
-        <v>77.503</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>370.28899999999999</v>
+        <v>76.231999999999999</v>
       </c>
       <c r="O13">
-        <v>9039.2720000000008</v>
+        <v>1420.8910000000001</v>
       </c>
       <c r="P13">
-        <v>8571.7720000000008</v>
+        <v>1345.6590000000001</v>
       </c>
       <c r="Q13">
-        <v>-3.7</v>
+        <v>-1.853</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>10850.236999999999</v>
+        <v>1411.548</v>
       </c>
       <c r="U13">
-        <v>49.414000000000001</v>
+        <v>9.7059999999999995</v>
       </c>
       <c r="V13">
-        <v>272.07799999999997</v>
+        <v>71.870999999999995</v>
       </c>
       <c r="W13">
-        <v>-239.416</v>
+        <v>-56.716999999999999</v>
       </c>
       <c r="X13">
-        <v>-423.35</v>
+        <v>36.454999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.66300000000000003</v>
+        <v>2.6920000000000002</v>
       </c>
       <c r="AA13">
-        <v>233.756</v>
+        <v>49.609000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>293.09500000000003</v>
+        <v>44.398000000000003</v>
       </c>
       <c r="D14">
-        <v>530.29700000000003</v>
+        <v>102.59099999999999</v>
       </c>
       <c r="E14">
-        <v>7549.8119999999999</v>
+        <v>16.471</v>
       </c>
       <c r="F14">
-        <v>447.81400000000002</v>
+        <v>92.251000000000005</v>
       </c>
       <c r="G14">
-        <v>8273.4169999999995</v>
+        <v>218.59899999999999</v>
       </c>
       <c r="H14">
-        <v>20075.87</v>
+        <v>3035.9569999999999</v>
       </c>
       <c r="I14">
-        <v>318.42700000000002</v>
+        <v>55.055</v>
       </c>
       <c r="J14">
-        <v>8586.7180000000008</v>
+        <v>1407.2840000000001</v>
       </c>
       <c r="K14">
-        <v>74.909000000000006</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>393.33600000000001</v>
+        <v>55.055</v>
       </c>
       <c r="O14">
-        <v>9144.7360000000008</v>
+        <v>1478.4190000000001</v>
       </c>
       <c r="P14">
-        <v>8661.6270000000004</v>
+        <v>1407.2840000000001</v>
       </c>
       <c r="Q14">
-        <v>251.142</v>
+        <v>8.0619999999999994</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>10931.134</v>
+        <v>1557.538</v>
       </c>
       <c r="U14">
-        <v>300.55599999999998</v>
+        <v>17.768000000000001</v>
       </c>
       <c r="V14">
-        <v>305.30700000000002</v>
+        <v>69.356999999999999</v>
       </c>
       <c r="W14">
-        <v>-239.816</v>
+        <v>-55.393000000000001</v>
       </c>
       <c r="X14">
-        <v>-131.77699999999999</v>
+        <v>101.792</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>12.907999999999999</v>
+        <v>-179.71199999999999</v>
       </c>
       <c r="AA14">
-        <v>293.09500000000003</v>
+        <v>44.398000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>259.11099999999999</v>
+        <v>46.835000000000001</v>
       </c>
       <c r="D15">
-        <v>529.99199999999996</v>
+        <v>94.986000000000004</v>
       </c>
       <c r="E15">
-        <v>7599.759</v>
+        <v>16.417000000000002</v>
       </c>
       <c r="F15">
-        <v>453.79</v>
+        <v>86.161000000000001</v>
       </c>
       <c r="G15">
-        <v>8062.9650000000001</v>
+        <v>148.87799999999999</v>
       </c>
       <c r="H15">
-        <v>19858.678</v>
+        <v>2857.462</v>
       </c>
       <c r="I15">
-        <v>264.79599999999999</v>
+        <v>57.35</v>
       </c>
       <c r="J15">
-        <v>8387.7960000000003</v>
+        <v>1216.971</v>
       </c>
       <c r="K15">
-        <v>74.096999999999994</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="M15">
-        <v>-562.73900000000003</v>
+        <v>-51.08</v>
       </c>
       <c r="N15">
-        <v>338.89299999999997</v>
+        <v>57.35</v>
       </c>
       <c r="O15">
-        <v>8889.1049999999996</v>
+        <v>1294.5930000000001</v>
       </c>
       <c r="P15">
-        <v>8461.893</v>
+        <v>1216.971</v>
       </c>
       <c r="Q15">
-        <v>-250.81800000000001</v>
+        <v>10.364000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10969.573</v>
+        <v>1562.8689999999999</v>
       </c>
       <c r="U15">
-        <v>49.738</v>
+        <v>28.132000000000001</v>
       </c>
       <c r="V15">
-        <v>247.18100000000001</v>
+        <v>69.706999999999994</v>
       </c>
       <c r="W15">
-        <v>-250.19800000000001</v>
+        <v>-61.177</v>
       </c>
       <c r="X15">
-        <v>-451.45</v>
+        <v>-206.959</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.77200000000000002</v>
+        <v>92.483999999999995</v>
       </c>
       <c r="AA15">
-        <v>259.11099999999999</v>
+        <v>46.835000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>218.88499999999999</v>
+        <v>41.584000000000003</v>
       </c>
       <c r="D16">
-        <v>536.12099999999998</v>
+        <v>103.926</v>
       </c>
       <c r="E16">
-        <v>7649.3630000000003</v>
+        <v>17.077000000000002</v>
       </c>
       <c r="F16">
-        <v>449.84800000000001</v>
+        <v>94.031999999999996</v>
       </c>
       <c r="G16">
-        <v>8125.4790000000003</v>
+        <v>130.16</v>
       </c>
       <c r="H16">
-        <v>20144.169000000002</v>
+        <v>2918.8240000000001</v>
       </c>
       <c r="I16">
-        <v>327.28100000000001</v>
+        <v>54.813000000000002</v>
       </c>
       <c r="J16">
-        <v>8613.0920000000006</v>
+        <v>1292.671</v>
       </c>
       <c r="K16">
-        <v>73.02</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>400.30099999999999</v>
+        <v>54.813000000000002</v>
       </c>
       <c r="O16">
-        <v>9171.5750000000007</v>
+        <v>1362.2190000000001</v>
       </c>
       <c r="P16">
-        <v>8686.1119999999992</v>
+        <v>1292.671</v>
       </c>
       <c r="Q16">
-        <v>4.3319999999999999</v>
+        <v>-16.587</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10972.593999999999</v>
+        <v>1556.605</v>
       </c>
       <c r="U16">
-        <v>54.07</v>
+        <v>11.548999999999999</v>
       </c>
       <c r="V16">
-        <v>360.524</v>
+        <v>54.470999999999997</v>
       </c>
       <c r="W16">
-        <v>-250.166</v>
+        <v>-60.454999999999998</v>
       </c>
       <c r="X16">
-        <v>-17.547999999999998</v>
+        <v>22.837</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.34100000000000003</v>
+        <v>-10.292</v>
       </c>
       <c r="AA16">
-        <v>218.88499999999999</v>
+        <v>41.584000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>247.654</v>
+        <v>34.49</v>
       </c>
       <c r="D17">
-        <v>596.63800000000003</v>
+        <v>109.131</v>
       </c>
       <c r="E17">
-        <v>7626.9179999999997</v>
+        <v>16.91</v>
       </c>
       <c r="F17">
-        <v>491.56400000000002</v>
+        <v>98.265000000000001</v>
       </c>
       <c r="G17">
-        <v>8198.6980000000003</v>
+        <v>179.32</v>
       </c>
       <c r="H17">
-        <v>20744.89</v>
+        <v>3013.6390000000001</v>
       </c>
       <c r="I17">
-        <v>320.29199999999997</v>
+        <v>60.576999999999998</v>
       </c>
       <c r="J17">
-        <v>9125.7090000000007</v>
+        <v>1390.2940000000001</v>
       </c>
       <c r="K17">
-        <v>97.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>418.137</v>
+        <v>60.576999999999998</v>
       </c>
       <c r="O17">
-        <v>9708.7160000000003</v>
+        <v>1467.152</v>
       </c>
       <c r="P17">
-        <v>9223.5540000000001</v>
+        <v>1390.2940000000001</v>
       </c>
       <c r="Q17">
-        <v>29.460999999999999</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>11036.174000000001</v>
+        <v>1546.4870000000001</v>
       </c>
       <c r="U17">
-        <v>83.531000000000006</v>
+        <v>11.369</v>
       </c>
       <c r="V17">
-        <v>275.31700000000001</v>
+        <v>76.563000000000002</v>
       </c>
       <c r="W17">
-        <v>-250.471</v>
+        <v>-60.741</v>
       </c>
       <c r="X17">
-        <v>326.173</v>
+        <v>-43.575000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-372.24799999999999</v>
+        <v>11.802</v>
       </c>
       <c r="AA17">
-        <v>247.654</v>
+        <v>34.49</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>196.583</v>
+        <v>46.131</v>
       </c>
       <c r="D18">
-        <v>603.52800000000002</v>
+        <v>112.286</v>
       </c>
       <c r="E18">
-        <v>7672.5370000000003</v>
+        <v>25.834</v>
       </c>
       <c r="F18">
-        <v>469.33199999999999</v>
+        <v>99.807000000000002</v>
       </c>
       <c r="G18">
-        <v>8853.2839999999997</v>
+        <v>188.172</v>
       </c>
       <c r="H18">
-        <v>21331.436000000002</v>
+        <v>3104.5259999999998</v>
       </c>
       <c r="I18">
-        <v>432.93400000000003</v>
+        <v>59.905000000000001</v>
       </c>
       <c r="J18">
-        <v>9624.2469999999994</v>
+        <v>1487.2909999999999</v>
       </c>
       <c r="K18">
-        <v>97.022000000000006</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>529.95600000000002</v>
+        <v>59.905000000000001</v>
       </c>
       <c r="O18">
-        <v>10334.337</v>
+        <v>1563.3030000000001</v>
       </c>
       <c r="P18">
-        <v>9721.2690000000002</v>
+        <v>1487.2909999999999</v>
       </c>
       <c r="Q18">
-        <v>100.279</v>
+        <v>6.532</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="T18">
-        <v>10997.099</v>
+        <v>1541.223</v>
       </c>
       <c r="U18">
-        <v>183.81</v>
+        <v>16.962</v>
       </c>
       <c r="V18">
-        <v>365.59899999999999</v>
+        <v>71.801000000000002</v>
       </c>
       <c r="W18">
-        <v>-250.72399999999999</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>287.62200000000001</v>
+        <v>39.97</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.67100000000000004</v>
+        <v>-5.44</v>
       </c>
       <c r="AA18">
-        <v>196.583</v>
+        <v>46.131</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-240.614</v>
+        <v>43.457999999999998</v>
       </c>
       <c r="D19">
-        <v>610.79100000000005</v>
+        <v>105.95</v>
       </c>
       <c r="E19">
-        <v>7227.06</v>
+        <v>27.024999999999999</v>
       </c>
       <c r="F19">
-        <v>475.37</v>
+        <v>92.649000000000001</v>
       </c>
       <c r="G19">
-        <v>8475.7870000000003</v>
+        <v>188.655</v>
       </c>
       <c r="H19">
-        <v>21024.441999999999</v>
+        <v>3048.1329999999998</v>
       </c>
       <c r="I19">
-        <v>305.32299999999998</v>
+        <v>62.399000000000001</v>
       </c>
       <c r="J19">
-        <v>9898.8359999999993</v>
+        <v>1185.5609999999999</v>
       </c>
       <c r="K19">
-        <v>95.747</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-52.3</v>
       </c>
       <c r="M19">
-        <v>-661.86</v>
+        <v>-1.1579999999999999</v>
       </c>
       <c r="N19">
-        <v>401.07</v>
+        <v>309.589</v>
       </c>
       <c r="O19">
-        <v>10468.796</v>
+        <v>1512.4690000000001</v>
       </c>
       <c r="P19">
-        <v>9994.5830000000005</v>
+        <v>1432.751</v>
       </c>
       <c r="Q19">
-        <v>-46.64</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>10555.646000000001</v>
+        <v>1535.664</v>
       </c>
       <c r="U19">
-        <v>137.16999999999999</v>
+        <v>17.806999999999999</v>
       </c>
       <c r="V19">
-        <v>230.06800000000001</v>
+        <v>72.486000000000004</v>
       </c>
       <c r="W19">
-        <v>-260.68599999999998</v>
+        <v>-61.606999999999999</v>
       </c>
       <c r="X19">
-        <v>51.722000000000001</v>
+        <v>-107.76</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-26.257000000000001</v>
+        <v>3.1259999999999999</v>
       </c>
       <c r="AA19">
-        <v>-240.614</v>
+        <v>43.457999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>164.88499999999999</v>
+        <v>43.046999999999997</v>
       </c>
       <c r="D20">
-        <v>607.53200000000004</v>
+        <v>110.38800000000001</v>
       </c>
       <c r="E20">
-        <v>7277.5860000000002</v>
+        <v>27.529</v>
       </c>
       <c r="F20">
-        <v>452.78300000000002</v>
+        <v>95</v>
       </c>
       <c r="G20">
-        <v>8348.3459999999995</v>
+        <v>210.97200000000001</v>
       </c>
       <c r="H20">
-        <v>22348.127</v>
+        <v>3187.76</v>
       </c>
       <c r="I20">
-        <v>425.05099999999999</v>
+        <v>62.764000000000003</v>
       </c>
       <c r="J20">
-        <v>11125.228999999999</v>
+        <v>1530.7470000000001</v>
       </c>
       <c r="K20">
-        <v>95.144000000000005</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>520.19500000000005</v>
+        <v>97.725999999999999</v>
       </c>
       <c r="O20">
-        <v>11821.13</v>
+        <v>1646.903</v>
       </c>
       <c r="P20">
-        <v>11220.373</v>
+        <v>1565.7090000000001</v>
       </c>
       <c r="Q20">
-        <v>-21.4</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>10526.996999999999</v>
+        <v>1540.857</v>
       </c>
       <c r="U20">
-        <v>115.77</v>
+        <v>18.89</v>
       </c>
       <c r="V20">
-        <v>363.91800000000001</v>
+        <v>67.671000000000006</v>
       </c>
       <c r="W20">
-        <v>-261.21199999999999</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>931.32</v>
+        <v>60.311999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3.2610000000000001</v>
+        <v>4.8739999999999997</v>
       </c>
       <c r="AA20">
-        <v>164.88499999999999</v>
+        <v>43.046999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>115.36199999999999</v>
+        <v>45.040999999999997</v>
       </c>
       <c r="D21">
-        <v>657.49900000000002</v>
+        <v>119.224</v>
       </c>
       <c r="E21">
-        <v>7319.3190000000004</v>
+        <v>29.306999999999999</v>
       </c>
       <c r="F21">
-        <v>482.43099999999998</v>
+        <v>105.851</v>
       </c>
       <c r="G21">
-        <v>8306.1190000000006</v>
+        <v>219.745</v>
       </c>
       <c r="H21">
-        <v>22192.973000000002</v>
+        <v>3494.944</v>
       </c>
       <c r="I21">
-        <v>394.18299999999999</v>
+        <v>70.527000000000001</v>
       </c>
       <c r="J21">
-        <v>11057.897000000001</v>
+        <v>1854.1120000000001</v>
       </c>
       <c r="K21">
-        <v>94.561000000000007</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>488.82100000000003</v>
+        <v>70.527000000000001</v>
       </c>
       <c r="O21">
-        <v>11732.516</v>
+        <v>1943.6569999999999</v>
       </c>
       <c r="P21">
-        <v>11152.535</v>
+        <v>1854.1120000000001</v>
       </c>
       <c r="Q21">
-        <v>4.7279999999999998</v>
+        <v>19.283999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>10460.457</v>
+        <v>1551.287</v>
       </c>
       <c r="U21">
-        <v>120.498</v>
+        <v>38.173999999999999</v>
       </c>
       <c r="V21">
-        <v>273.67399999999998</v>
+        <v>80.884</v>
       </c>
       <c r="W21">
-        <v>-261.68</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-227.16200000000001</v>
+        <v>167.81800000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>3.1440000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="AA21">
-        <v>115.36199999999999</v>
+        <v>45.040999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>41.511000000000003</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>84.924999999999997</v>
       </c>
       <c r="E22">
-        <v>1166.5730000000001</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>67.671000000000006</v>
       </c>
       <c r="G22">
-        <v>7976.174</v>
+        <v>532.11199999999997</v>
       </c>
       <c r="H22">
-        <v>21449.848999999998</v>
+        <v>3597.2649999999999</v>
       </c>
       <c r="I22">
-        <v>430.786</v>
+        <v>68.718000000000004</v>
       </c>
       <c r="J22">
-        <v>10974.558000000001</v>
+        <v>1956.9459999999999</v>
       </c>
       <c r="K22">
-        <v>94.444999999999993</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>550.49699999999996</v>
+        <v>68.718000000000004</v>
       </c>
       <c r="O22">
-        <v>11703.531999999999</v>
+        <v>2048.2150000000001</v>
       </c>
       <c r="P22">
-        <v>11069.003000000001</v>
+        <v>1956.9459999999999</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-16.832000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="T22">
-        <v>9746.3169999999991</v>
+        <v>1549.05</v>
       </c>
       <c r="U22">
-        <v>340.44200000000001</v>
+        <v>21.341999999999999</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>61.048999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>16.706</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-2.883</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>41.511000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>116.119</v>
+        <v>57.887999999999998</v>
       </c>
       <c r="D23">
-        <v>520.45699999999999</v>
+        <v>117.818</v>
       </c>
       <c r="E23">
-        <v>6279.8980000000001</v>
+        <v>35.695999999999998</v>
       </c>
       <c r="F23">
-        <v>342.02499999999998</v>
+        <v>100.372</v>
       </c>
       <c r="G23">
-        <v>7505.982</v>
+        <v>246.99100000000001</v>
       </c>
       <c r="H23">
-        <v>21199.927</v>
+        <v>3788.8159999999998</v>
       </c>
       <c r="I23">
-        <v>425.76</v>
+        <v>72.867000000000004</v>
       </c>
       <c r="J23">
-        <v>10673.275</v>
+        <v>1919.8689999999999</v>
       </c>
       <c r="K23">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-536.91800000000001</v>
+        <v>-136.47</v>
       </c>
       <c r="N23">
-        <v>713.87699999999995</v>
+        <v>272.86700000000002</v>
       </c>
       <c r="O23">
-        <v>11569.602000000001</v>
+        <v>2224.5169999999998</v>
       </c>
       <c r="P23">
-        <v>10943.328</v>
+        <v>2119.8690000000001</v>
       </c>
       <c r="Q23">
-        <v>-251.83500000000001</v>
+        <v>34.615000000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9630.3250000000007</v>
+        <v>1564.299</v>
       </c>
       <c r="U23">
-        <v>94.665000000000006</v>
+        <v>55.957000000000001</v>
       </c>
       <c r="V23">
-        <v>268.61700000000002</v>
+        <v>92.210999999999999</v>
       </c>
       <c r="W23">
-        <v>-268.18599999999998</v>
+        <v>-63.761000000000003</v>
       </c>
       <c r="X23">
-        <v>-354.40199999999999</v>
+        <v>93.738</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-4.8</v>
+        <v>-12.468</v>
       </c>
       <c r="AA23">
-        <v>116.119</v>
+        <v>57.887999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>301.71699999999998</v>
+        <v>41.567</v>
       </c>
       <c r="D24">
-        <v>538.33500000000004</v>
+        <v>117.739</v>
       </c>
       <c r="E24">
-        <v>6287.3459999999995</v>
+        <v>37.421999999999997</v>
       </c>
       <c r="F24">
-        <v>358.43200000000002</v>
+        <v>98.834999999999994</v>
       </c>
       <c r="G24">
-        <v>7622.7489999999998</v>
+        <v>206.96</v>
       </c>
       <c r="H24">
-        <v>21116.456999999999</v>
+        <v>3858.605</v>
       </c>
       <c r="I24">
-        <v>474.27499999999998</v>
+        <v>75.713999999999999</v>
       </c>
       <c r="J24">
-        <v>10635.769</v>
+        <v>2193.2510000000002</v>
       </c>
       <c r="K24">
-        <v>93.012</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>618.81399999999996</v>
+        <v>80.02</v>
       </c>
       <c r="O24">
-        <v>11440.069</v>
+        <v>2309.2440000000001</v>
       </c>
       <c r="P24">
-        <v>10763.307000000001</v>
+        <v>2196.489</v>
       </c>
       <c r="Q24">
-        <v>21.785</v>
+        <v>-34.481000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9676.3880000000008</v>
+        <v>1549.3610000000001</v>
       </c>
       <c r="U24">
-        <v>116.45</v>
+        <v>21.475999999999999</v>
       </c>
       <c r="V24">
-        <v>398.29500000000002</v>
+        <v>81.656000000000006</v>
       </c>
       <c r="W24">
-        <v>-268.875</v>
+        <v>-63.661999999999999</v>
       </c>
       <c r="X24">
-        <v>-388.346</v>
+        <v>-50.435000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.0649999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="AA24">
-        <v>301.71699999999998</v>
+        <v>41.567</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>151.25</v>
+        <v>76.817999999999998</v>
       </c>
       <c r="D25">
-        <v>530.55700000000002</v>
+        <v>120.85899999999999</v>
       </c>
       <c r="E25">
-        <v>6281.95</v>
+        <v>39.676000000000002</v>
       </c>
       <c r="F25">
-        <v>340.08</v>
+        <v>100.95699999999999</v>
       </c>
       <c r="G25">
-        <v>7542.53</v>
+        <v>955.51499999999999</v>
       </c>
       <c r="H25">
-        <v>21188.544999999998</v>
+        <v>4611.5010000000002</v>
       </c>
       <c r="I25">
-        <v>480.47500000000002</v>
+        <v>88.051000000000002</v>
       </c>
       <c r="J25">
-        <v>10802.591</v>
+        <v>2801.91</v>
       </c>
       <c r="K25">
-        <v>93.876000000000005</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>627.97900000000004</v>
+        <v>210.88900000000001</v>
       </c>
       <c r="O25">
-        <v>11613.111000000001</v>
+        <v>3044.1709999999998</v>
       </c>
       <c r="P25">
-        <v>10927.093000000001</v>
+        <v>2923.4279999999999</v>
       </c>
       <c r="Q25">
-        <v>16.440999999999999</v>
+        <v>623.88699999999994</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>9575.4339999999993</v>
+        <v>1567.33</v>
       </c>
       <c r="U25">
-        <v>132.89099999999999</v>
+        <v>645.36300000000006</v>
       </c>
       <c r="V25">
-        <v>331.72</v>
+        <v>80.626000000000005</v>
       </c>
       <c r="W25">
-        <v>-269.18200000000002</v>
+        <v>-63.863999999999997</v>
       </c>
       <c r="X25">
-        <v>-154.58000000000001</v>
+        <v>663.19899999999996</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>8.0239999999999991</v>
+        <v>6.3540000000000001</v>
       </c>
       <c r="AA25">
-        <v>151.25</v>
+        <v>76.817999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>58.661000000000001</v>
+        <v>241.274</v>
       </c>
       <c r="D26">
-        <v>539.94500000000005</v>
+        <v>186.80600000000001</v>
       </c>
       <c r="E26">
-        <v>797.70500000000004</v>
+        <v>744.62099999999998</v>
       </c>
       <c r="F26">
-        <v>340.53699999999998</v>
+        <v>154.53700000000001</v>
       </c>
       <c r="G26">
-        <v>2670.5149999999999</v>
+        <v>3236.82</v>
       </c>
       <c r="H26">
-        <v>15759.264999999999</v>
+        <v>10012.749</v>
       </c>
       <c r="I26">
-        <v>417.36</v>
+        <v>200.08799999999999</v>
       </c>
       <c r="J26">
-        <v>9097.11</v>
+        <v>6094.2690000000002</v>
       </c>
       <c r="K26">
-        <v>92.385000000000005</v>
+        <v>107.746</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>513.52099999999996</v>
+        <v>307.834</v>
       </c>
       <c r="O26">
-        <v>9817.9570000000003</v>
+        <v>6556.9480000000003</v>
       </c>
       <c r="P26">
-        <v>9189.4950000000008</v>
+        <v>6202.0150000000003</v>
       </c>
       <c r="Q26">
-        <v>-56.517000000000003</v>
+        <v>-586.95799999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="T26">
-        <v>5941.308</v>
+        <v>3455.8009999999999</v>
       </c>
       <c r="U26">
-        <v>94.73</v>
+        <v>58.405000000000001</v>
       </c>
       <c r="V26">
-        <v>215.499</v>
+        <v>86.703000000000003</v>
       </c>
       <c r="W26">
-        <v>-173.29900000000001</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-156.93700000000001</v>
+        <v>2681.4169999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>245.881</v>
+        <v>33.098999999999997</v>
       </c>
       <c r="AA26">
-        <v>58.661000000000001</v>
+        <v>241.274</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>461.14499999999998</v>
+        <v>145.28800000000001</v>
       </c>
       <c r="D27">
-        <v>492.16800000000001</v>
+        <v>208.06700000000001</v>
       </c>
       <c r="E27">
-        <v>1060.165</v>
+        <v>713.91600000000005</v>
       </c>
       <c r="F27">
-        <v>332.03</v>
+        <v>167.61099999999999</v>
       </c>
       <c r="G27">
-        <v>2673.5709999999999</v>
+        <v>1051.462</v>
       </c>
       <c r="H27">
-        <v>14855.868</v>
+        <v>9391.0859999999993</v>
       </c>
       <c r="I27">
-        <v>340.745</v>
+        <v>165.208</v>
       </c>
       <c r="J27">
-        <v>8050.8860000000004</v>
+        <v>4964.5069999999996</v>
       </c>
       <c r="K27">
-        <v>91.263000000000005</v>
+        <v>108.307</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1060.271</v>
+        <v>-954.38800000000003</v>
       </c>
       <c r="N27">
-        <v>435.47399999999999</v>
+        <v>274.96800000000002</v>
       </c>
       <c r="O27">
-        <v>8682.393</v>
+        <v>5428.9669999999996</v>
       </c>
       <c r="P27">
-        <v>8145.6149999999998</v>
+        <v>5072.8140000000003</v>
       </c>
       <c r="Q27">
-        <v>687.93</v>
+        <v>42.235999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6173.4750000000004</v>
+        <v>3962.1190000000001</v>
       </c>
       <c r="U27">
-        <v>764.11400000000003</v>
+        <v>102.923</v>
       </c>
       <c r="V27">
-        <v>193.12899999999999</v>
+        <v>86.998999999999995</v>
       </c>
       <c r="W27">
-        <v>-173.62899999999999</v>
+        <v>-97.061000000000007</v>
       </c>
       <c r="X27">
-        <v>-1238.9690000000001</v>
+        <v>-272.26799999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>178.125</v>
+        <v>280.66300000000001</v>
       </c>
       <c r="AA27">
-        <v>461.14499999999998</v>
+        <v>145.28800000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>19.382999999999999</v>
+        <v>71.284000000000006</v>
       </c>
       <c r="D28">
-        <v>458.928</v>
+        <v>206.846</v>
       </c>
       <c r="E28">
-        <v>1069.231</v>
+        <v>715.82799999999997</v>
       </c>
       <c r="F28">
-        <v>248.21600000000001</v>
+        <v>169.63399999999999</v>
       </c>
       <c r="G28">
-        <v>1916.252</v>
+        <v>1497.124</v>
       </c>
       <c r="H28">
-        <v>14102.575000000001</v>
+        <v>8879.3259999999991</v>
       </c>
       <c r="I28">
-        <v>380.91399999999999</v>
+        <v>165.38200000000001</v>
       </c>
       <c r="J28">
-        <v>7397.616</v>
+        <v>4458.8310000000001</v>
       </c>
       <c r="K28">
-        <v>94.801000000000002</v>
+        <v>108.497</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>477.4</v>
+        <v>300.62099999999998</v>
       </c>
       <c r="O28">
-        <v>8073.634</v>
+        <v>4934.1369999999997</v>
       </c>
       <c r="P28">
-        <v>7494.1019999999999</v>
+        <v>4592.8040000000001</v>
       </c>
       <c r="Q28">
-        <v>-371.47399999999999</v>
+        <v>248.29400000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6028.9409999999998</v>
+        <v>3945.1889999999999</v>
       </c>
       <c r="U28">
-        <v>391.96499999999997</v>
+        <v>351.21699999999998</v>
       </c>
       <c r="V28">
-        <v>238.46</v>
+        <v>129.596</v>
       </c>
       <c r="W28">
-        <v>-173.489</v>
+        <v>-97.236999999999995</v>
       </c>
       <c r="X28">
-        <v>-853.19799999999998</v>
+        <v>-233.44900000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>351.94099999999997</v>
+        <v>220.52</v>
       </c>
       <c r="AA28">
-        <v>19.382999999999999</v>
+        <v>71.284000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-7.657</v>
+        <v>322.14800000000002</v>
       </c>
       <c r="D29">
-        <v>454.02300000000002</v>
+        <v>243.57900000000001</v>
       </c>
       <c r="E29">
-        <v>1063.3019999999999</v>
+        <v>737.78899999999999</v>
       </c>
       <c r="F29">
-        <v>298.10500000000002</v>
+        <v>193.66499999999999</v>
       </c>
       <c r="G29">
-        <v>1842.55</v>
+        <v>1537.1790000000001</v>
       </c>
       <c r="H29">
-        <v>13904.081</v>
+        <v>12096.133</v>
       </c>
       <c r="I29">
-        <v>368.74</v>
+        <v>212.54300000000001</v>
       </c>
       <c r="J29">
-        <v>7373.518</v>
+        <v>7246.8980000000001</v>
       </c>
       <c r="K29">
-        <v>94.817999999999998</v>
+        <v>109.208</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>473.05799999999999</v>
+        <v>335.62799999999999</v>
       </c>
       <c r="O29">
-        <v>8049.85</v>
+        <v>7913.25</v>
       </c>
       <c r="P29">
-        <v>7469.183</v>
+        <v>7367.7169999999996</v>
       </c>
       <c r="Q29">
-        <v>-292.42399999999998</v>
+        <v>219.91800000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5854.2309999999998</v>
+        <v>4182.8829999999998</v>
       </c>
       <c r="U29">
-        <v>133.887</v>
+        <v>568.85299999999995</v>
       </c>
       <c r="V29">
-        <v>206.30699999999999</v>
+        <v>93.225999999999999</v>
       </c>
       <c r="W29">
-        <v>-173.661</v>
+        <v>-97.489000000000004</v>
       </c>
       <c r="X29">
-        <v>-262.79599999999999</v>
+        <v>2640.62</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.72699999999999998</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AA29">
-        <v>-7.657</v>
+        <v>322.14800000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-58.701999999999998</v>
+        <v>50.295000000000002</v>
       </c>
       <c r="D30">
-        <v>443.25900000000001</v>
+        <v>249.322</v>
       </c>
       <c r="E30">
-        <v>755.08500000000004</v>
+        <v>761.13199999999995</v>
       </c>
       <c r="F30">
-        <v>95.131</v>
+        <v>201.523</v>
       </c>
       <c r="G30">
-        <v>1567.6279999999999</v>
+        <v>2384.4499999999998</v>
       </c>
       <c r="H30">
-        <v>14088.460999999999</v>
+        <v>12521.772000000001</v>
       </c>
       <c r="I30">
-        <v>388.28699999999998</v>
+        <v>238.09299999999999</v>
       </c>
       <c r="J30">
-        <v>7788.7839999999997</v>
+        <v>7398.9409999999998</v>
       </c>
       <c r="K30">
-        <v>94.165000000000006</v>
+        <v>108.496</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>496.483</v>
+        <v>346.589</v>
       </c>
       <c r="O30">
-        <v>8493.5229999999992</v>
+        <v>8078.7920000000004</v>
       </c>
       <c r="P30">
-        <v>7882.9489999999996</v>
+        <v>7507.4369999999999</v>
       </c>
       <c r="Q30">
-        <v>-78.819000000000003</v>
+        <v>-472.584</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="T30">
-        <v>5594.9380000000001</v>
+        <v>4442.9799999999996</v>
       </c>
       <c r="U30">
-        <v>55.305999999999997</v>
+        <v>96.269000000000005</v>
       </c>
       <c r="V30">
-        <v>209.14500000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="W30">
-        <v>-174.17599999999999</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>206.50200000000001</v>
+        <v>338.02499999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>20.119</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AA30">
-        <v>-58.701999999999998</v>
+        <v>50.295000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>40.231999999999999</v>
+        <v>49.862000000000002</v>
       </c>
       <c r="D31">
-        <v>479.197</v>
+        <v>244.79300000000001</v>
       </c>
       <c r="E31">
-        <v>764.93100000000004</v>
+        <v>675.42100000000005</v>
       </c>
       <c r="F31">
-        <v>304.45</v>
+        <v>196.572</v>
       </c>
       <c r="G31">
-        <v>1366.066</v>
+        <v>2175.2710000000002</v>
       </c>
       <c r="H31">
-        <v>14067.571</v>
+        <v>12500.064</v>
       </c>
       <c r="I31">
-        <v>373.327</v>
+        <v>197.24100000000001</v>
       </c>
       <c r="J31">
-        <v>7871.0169999999998</v>
+        <v>7464.2629999999999</v>
       </c>
       <c r="K31">
-        <v>93.855999999999995</v>
+        <v>106.67700000000001</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-171.172</v>
+        <v>-12.071</v>
       </c>
       <c r="N31">
-        <v>495.08</v>
+        <v>356.39100000000002</v>
       </c>
       <c r="O31">
-        <v>8586.6479999999992</v>
+        <v>8158.6790000000001</v>
       </c>
       <c r="P31">
-        <v>7967.5219999999999</v>
+        <v>7570.94</v>
       </c>
       <c r="Q31">
-        <v>35.765000000000001</v>
+        <v>57.731000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5480.9229999999998</v>
+        <v>4341.3850000000002</v>
       </c>
       <c r="U31">
-        <v>86.021000000000001</v>
+        <v>154</v>
       </c>
       <c r="V31">
-        <v>196.16399999999999</v>
+        <v>131.67500000000001</v>
       </c>
       <c r="W31">
-        <v>-174.149</v>
+        <v>-104.37</v>
       </c>
       <c r="X31">
-        <v>-171.238</v>
+        <v>-52.625</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>135.99799999999999</v>
+        <v>1.8440000000000001</v>
       </c>
       <c r="AA31">
-        <v>40.231999999999999</v>
+        <v>49.862000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>89.941999999999993</v>
+        <v>231.43299999999999</v>
       </c>
       <c r="D32">
-        <v>469.55099999999999</v>
+        <v>248.77500000000001</v>
       </c>
       <c r="E32">
-        <v>756.53499999999997</v>
+        <v>768.73</v>
       </c>
       <c r="F32">
-        <v>293.28100000000001</v>
+        <v>202.32300000000001</v>
       </c>
       <c r="G32">
-        <v>2012.3040000000001</v>
+        <v>2181.3850000000002</v>
       </c>
       <c r="H32">
-        <v>13451.387000000001</v>
+        <v>12223.73</v>
       </c>
       <c r="I32">
-        <v>397.214</v>
+        <v>221.26499999999999</v>
       </c>
       <c r="J32">
-        <v>7309.9679999999998</v>
+        <v>6488.1660000000002</v>
       </c>
       <c r="K32">
-        <v>93.07</v>
+        <v>105.264</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>502.351</v>
+        <v>328.65300000000002</v>
       </c>
       <c r="O32">
-        <v>8034.6639999999998</v>
+        <v>7143.04</v>
       </c>
       <c r="P32">
-        <v>7404.7479999999996</v>
+        <v>6593.43</v>
       </c>
       <c r="Q32">
-        <v>3.9609999999999999</v>
+        <v>62.789000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5416.723</v>
+        <v>5080.6899999999996</v>
       </c>
       <c r="U32">
-        <v>91.381</v>
+        <v>216.78899999999999</v>
       </c>
       <c r="V32">
-        <v>243.51</v>
+        <v>141.01900000000001</v>
       </c>
       <c r="W32">
-        <v>-174.29</v>
+        <v>-112.649</v>
       </c>
       <c r="X32">
-        <v>-720.50199999999995</v>
+        <v>-528.78499999999997</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>99.430999999999997</v>
+        <v>15.067</v>
       </c>
       <c r="AA32">
-        <v>89.941999999999993</v>
+        <v>231.173</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>99.370999999999995</v>
+        <v>124.91</v>
       </c>
       <c r="D33">
-        <v>456.02199999999999</v>
+        <v>267.85199999999998</v>
       </c>
       <c r="E33">
-        <v>763.41</v>
+        <v>778.524</v>
       </c>
       <c r="F33">
-        <v>270.32600000000002</v>
+        <v>218.74799999999999</v>
       </c>
       <c r="G33">
-        <v>1336.5160000000001</v>
+        <v>2006.4269999999999</v>
       </c>
       <c r="H33">
-        <v>13083.958000000001</v>
+        <v>12031.404</v>
       </c>
       <c r="I33">
-        <v>409.44</v>
+        <v>222.55500000000001</v>
       </c>
       <c r="J33">
-        <v>6706.2629999999999</v>
+        <v>5803.6850000000004</v>
       </c>
       <c r="K33">
-        <v>92.494</v>
+        <v>102.602</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>505.94</v>
+        <v>370.35500000000002</v>
       </c>
       <c r="O33">
-        <v>7443.5829999999996</v>
+        <v>6489.8239999999996</v>
       </c>
       <c r="P33">
-        <v>6799.6170000000002</v>
+        <v>5949.36</v>
       </c>
       <c r="Q33">
-        <v>-13.188000000000001</v>
+        <v>-99.736999999999995</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5640.375</v>
+        <v>5541.58</v>
       </c>
       <c r="U33">
-        <v>78.864000000000004</v>
+        <v>117.05200000000001</v>
       </c>
       <c r="V33">
-        <v>193.244</v>
+        <v>182.68899999999999</v>
       </c>
       <c r="W33">
-        <v>-174.12700000000001</v>
+        <v>-120.078</v>
       </c>
       <c r="X33">
-        <v>-532.41899999999998</v>
+        <v>-309.82900000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>408.52800000000002</v>
+        <v>-23.35</v>
       </c>
       <c r="AA33">
-        <v>99.370999999999995</v>
+        <v>124.89700000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>831.548</v>
+        <v>40.292999999999999</v>
       </c>
       <c r="D34">
-        <v>441.91899999999998</v>
+        <v>392.53500000000003</v>
       </c>
       <c r="E34">
-        <v>761.98900000000003</v>
+        <v>794.10599999999999</v>
       </c>
       <c r="F34">
-        <v>262.822</v>
+        <v>343.26299999999998</v>
       </c>
       <c r="G34">
-        <v>1072.9190000000001</v>
+        <v>1990.9369999999999</v>
       </c>
       <c r="H34">
-        <v>12718.553</v>
+        <v>11849.825999999999</v>
       </c>
       <c r="I34">
-        <v>390.27300000000002</v>
+        <v>211.715</v>
       </c>
       <c r="J34">
-        <v>5478.433</v>
+        <v>5515.2470000000003</v>
       </c>
       <c r="K34">
-        <v>90.784999999999997</v>
+        <v>102.209</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>482.18299999999999</v>
+        <v>633.92399999999998</v>
       </c>
       <c r="O34">
-        <v>6205.9620000000004</v>
+        <v>6441.9859999999999</v>
       </c>
       <c r="P34">
-        <v>5569.2179999999998</v>
+        <v>5937.4560000000001</v>
       </c>
       <c r="Q34">
-        <v>31.105</v>
+        <v>-59.49</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="T34">
-        <v>6512.5910000000003</v>
+        <v>5407.84</v>
       </c>
       <c r="U34">
-        <v>110.79</v>
+        <v>57.561999999999998</v>
       </c>
       <c r="V34">
-        <v>215.791</v>
+        <v>113.31399999999999</v>
       </c>
       <c r="W34">
-        <v>-174.34700000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1196.377</v>
+        <v>-143.49199999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>6.0419999999999998</v>
+        <v>-5.274</v>
       </c>
       <c r="AA34">
-        <v>831.548</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>61.47</v>
+        <v>48.883000000000003</v>
       </c>
       <c r="D35">
-        <v>436.154</v>
+        <v>277.01</v>
       </c>
       <c r="E35">
-        <v>411.95</v>
+        <v>801.221</v>
       </c>
       <c r="F35">
-        <v>262.709</v>
+        <v>229.05699999999999</v>
       </c>
       <c r="G35">
-        <v>655.58299999999997</v>
+        <v>1990.5640000000001</v>
       </c>
       <c r="H35">
-        <v>12899.501</v>
+        <v>11801.289000000001</v>
       </c>
       <c r="I35">
-        <v>351.42500000000001</v>
+        <v>189.11699999999999</v>
       </c>
       <c r="J35">
-        <v>5673.1779999999999</v>
+        <v>5445.3649999999998</v>
       </c>
       <c r="K35">
-        <v>89.222999999999999</v>
+        <v>101.047</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-127.437</v>
+        <v>-38.463000000000001</v>
       </c>
       <c r="N35">
-        <v>449.40300000000002</v>
+        <v>728.95799999999997</v>
       </c>
       <c r="O35">
-        <v>6500.4359999999997</v>
+        <v>6470.3770000000004</v>
       </c>
       <c r="P35">
-        <v>5917.924</v>
+        <v>5984.223</v>
       </c>
       <c r="Q35">
-        <v>6.806</v>
+        <v>8.8140000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6399.0649999999996</v>
+        <v>5330.9120000000003</v>
       </c>
       <c r="U35">
-        <v>120.117</v>
+        <v>66.376000000000005</v>
       </c>
       <c r="V35">
-        <v>158.58199999999999</v>
+        <v>117.012</v>
       </c>
       <c r="W35">
-        <v>-177.286</v>
+        <v>-122.17400000000001</v>
       </c>
       <c r="X35">
-        <v>8.5210000000000008</v>
+        <v>-90.338999999999999</v>
       </c>
       <c r="Y35">
-        <v>146.9</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>2.1080000000000001</v>
+        <v>1.714</v>
       </c>
       <c r="AA35">
-        <v>61.47</v>
+        <v>48.883000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-13.597</v>
+        <v>97.459000000000003</v>
       </c>
       <c r="D36">
-        <v>491.56700000000001</v>
+        <v>290.65600000000001</v>
       </c>
       <c r="E36">
-        <v>410.94400000000002</v>
+        <v>816.27099999999996</v>
       </c>
       <c r="F36">
-        <v>276.23700000000002</v>
+        <v>245.001</v>
       </c>
       <c r="G36">
-        <v>852.55399999999997</v>
+        <v>1976.5239999999999</v>
       </c>
       <c r="H36">
-        <v>13713.093000000001</v>
+        <v>11785.85</v>
       </c>
       <c r="I36">
-        <v>370.11900000000003</v>
+        <v>193.66900000000001</v>
       </c>
       <c r="J36">
-        <v>6203.0079999999998</v>
+        <v>5410.8590000000004</v>
       </c>
       <c r="K36">
-        <v>87.210999999999999</v>
+        <v>98.983999999999995</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>493.66</v>
+        <v>296.279</v>
       </c>
       <c r="O36">
-        <v>7093.8209999999999</v>
+        <v>5994.4250000000002</v>
       </c>
       <c r="P36">
-        <v>6446.5519999999997</v>
+        <v>5509.8429999999998</v>
       </c>
       <c r="Q36">
-        <v>9.4</v>
+        <v>-16.891999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6619.2719999999999</v>
+        <v>5791.4250000000002</v>
       </c>
       <c r="U36">
-        <v>130.52099999999999</v>
+        <v>49.484000000000002</v>
       </c>
       <c r="V36">
-        <v>221.97800000000001</v>
+        <v>133.08500000000001</v>
       </c>
       <c r="W36">
-        <v>-177.26400000000001</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>716.13699999999994</v>
+        <v>-178.63800000000001</v>
       </c>
       <c r="Y36">
-        <v>150.096</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1.804</v>
+        <v>7.5140000000000002</v>
       </c>
       <c r="AA36">
-        <v>-13.597</v>
+        <v>97.459000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-45.863</v>
+        <v>-46.686</v>
       </c>
       <c r="D37">
-        <v>537.971</v>
+        <v>287.06799999999998</v>
       </c>
       <c r="E37">
-        <v>141.595</v>
+        <v>822.18899999999996</v>
       </c>
       <c r="F37">
-        <v>288.58300000000003</v>
+        <v>240.90899999999999</v>
       </c>
       <c r="G37">
-        <v>837.05899999999997</v>
+        <v>2676.6550000000002</v>
       </c>
       <c r="H37">
-        <v>14010.21</v>
+        <v>12338.21</v>
       </c>
       <c r="I37">
-        <v>430.666</v>
+        <v>305.11700000000002</v>
       </c>
       <c r="J37">
-        <v>6515.1890000000003</v>
+        <v>5583.9809999999998</v>
       </c>
       <c r="K37">
-        <v>85.069000000000003</v>
+        <v>99.486999999999995</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>554.19000000000005</v>
+        <v>409.98</v>
       </c>
       <c r="O37">
-        <v>7486.8509999999997</v>
+        <v>6288.7330000000002</v>
       </c>
       <c r="P37">
-        <v>6757.5559999999996</v>
+        <v>5687.4679999999998</v>
       </c>
       <c r="Q37">
-        <v>-0.94799999999999995</v>
+        <v>94.882000000000005</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6523.3590000000004</v>
+        <v>6049.4769999999999</v>
       </c>
       <c r="U37">
-        <v>124.99</v>
+        <v>144.36600000000001</v>
       </c>
       <c r="V37">
-        <v>248.041</v>
+        <v>139.62299999999999</v>
       </c>
       <c r="W37">
-        <v>-182.11</v>
+        <v>-132.1</v>
       </c>
       <c r="X37">
-        <v>103.59</v>
+        <v>34.715000000000003</v>
       </c>
       <c r="Y37">
-        <v>153.90600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>272.21199999999999</v>
+        <v>116.164</v>
       </c>
       <c r="AA37">
-        <v>-45.863</v>
+        <v>-46.686</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>31.678999999999998</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>294.16800000000001</v>
       </c>
       <c r="E38">
-        <v>129.446</v>
+        <v>802.47699999999998</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>248.23099999999999</v>
       </c>
       <c r="G38">
-        <v>4062.0729999999999</v>
+        <v>2655.3330000000001</v>
       </c>
       <c r="H38">
-        <v>14032.891</v>
+        <v>12209.735000000001</v>
       </c>
       <c r="I38">
-        <v>270.524</v>
+        <v>306.15800000000002</v>
       </c>
       <c r="J38">
-        <v>5909.2520000000004</v>
+        <v>5556.26</v>
       </c>
       <c r="K38">
-        <v>93</v>
+        <v>99.882999999999996</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>837.17200000000003</v>
+        <v>409.47899999999998</v>
       </c>
       <c r="O38">
-        <v>7365.4170000000004</v>
+        <v>6251.1260000000002</v>
       </c>
       <c r="P38">
-        <v>6154.652</v>
+        <v>5659.5810000000001</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-32.106999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="T38">
-        <v>6667.4740000000002</v>
+        <v>5958.6090000000004</v>
       </c>
       <c r="U38">
-        <v>80.397999999999996</v>
+        <v>112.259</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>125.914</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-140.274</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>-165.26900000000001</v>
       </c>
       <c r="Y38">
-        <v>152.4</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>30.623999999999999</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>32.033999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>279.08</v>
+        <v>81.036000000000001</v>
       </c>
       <c r="D39">
-        <v>585.15</v>
+        <v>294.82</v>
       </c>
       <c r="E39">
-        <v>129.74299999999999</v>
+        <v>824.63</v>
       </c>
       <c r="F39">
-        <v>194.28899999999999</v>
+        <v>248.733</v>
       </c>
       <c r="G39">
-        <v>1512.355</v>
+        <v>2613.2660000000001</v>
       </c>
       <c r="H39">
-        <v>16072.679</v>
+        <v>12139.57</v>
       </c>
       <c r="I39">
-        <v>854.779</v>
+        <v>288.97300000000001</v>
       </c>
       <c r="J39">
-        <v>6382.902</v>
+        <v>5565.6980000000003</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>97.022999999999996</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-2123.9380000000001</v>
+        <v>-208.84200000000001</v>
       </c>
       <c r="N39">
-        <v>892.95699999999999</v>
+        <v>387.233</v>
       </c>
       <c r="O39">
-        <v>8259.2360000000008</v>
+        <v>6231.3990000000003</v>
       </c>
       <c r="P39">
-        <v>6546.1639999999998</v>
+        <v>5662.7209999999995</v>
       </c>
       <c r="Q39">
-        <v>705.44200000000001</v>
+        <v>-67.655000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>7813.4430000000002</v>
+        <v>5908.1710000000003</v>
       </c>
       <c r="U39">
-        <v>783.54200000000003</v>
+        <v>44.603999999999999</v>
       </c>
       <c r="V39">
-        <v>95.042000000000002</v>
+        <v>109.459</v>
       </c>
       <c r="W39">
-        <v>-188.5</v>
+        <v>-142.59200000000001</v>
       </c>
       <c r="X39">
-        <v>761.42100000000005</v>
+        <v>-138.404</v>
       </c>
       <c r="Y39">
-        <v>156.80799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>85.253</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="AA39">
-        <v>279.08</v>
+        <v>81.036000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>51.506</v>
+        <v>85.100999999999999</v>
       </c>
       <c r="D40">
-        <v>588.44000000000005</v>
+        <v>301.87700000000001</v>
       </c>
       <c r="E40">
-        <v>118.13800000000001</v>
+        <v>822.25699999999995</v>
       </c>
       <c r="F40">
-        <v>266.97199999999998</v>
+        <v>256.46100000000001</v>
       </c>
       <c r="G40">
-        <v>1587.261</v>
+        <v>2665.9430000000002</v>
       </c>
       <c r="H40">
-        <v>16316.44</v>
+        <v>12244.643</v>
       </c>
       <c r="I40">
-        <v>846.01599999999996</v>
+        <v>306.13</v>
       </c>
       <c r="J40">
-        <v>6724.5820000000003</v>
+        <v>5255.3069999999998</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>94.956000000000003</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>882.93299999999999</v>
+        <v>427.96600000000001</v>
       </c>
       <c r="O40">
-        <v>8647.7189999999991</v>
+        <v>5951.3230000000003</v>
       </c>
       <c r="P40">
-        <v>6905.88</v>
+        <v>5376.0460000000003</v>
       </c>
       <c r="Q40">
-        <v>-53.457999999999998</v>
+        <v>51.655999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7668.7209999999995</v>
+        <v>6293.32</v>
       </c>
       <c r="U40">
-        <v>730.95699999999999</v>
+        <v>96.26</v>
       </c>
       <c r="V40">
-        <v>224.78100000000001</v>
+        <v>166.63800000000001</v>
       </c>
       <c r="W40">
-        <v>-199.55</v>
+        <v>-142.161</v>
       </c>
       <c r="X40">
-        <v>106.163</v>
+        <v>7.64</v>
       </c>
       <c r="Y40">
-        <v>177.029</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>25.934999999999999</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="AA40">
-        <v>51.506</v>
+        <v>85.100999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-63.417000000000002</v>
+        <v>22.655000000000001</v>
       </c>
       <c r="D41">
-        <v>597.73900000000003</v>
+        <v>317.04899999999998</v>
       </c>
       <c r="E41">
-        <v>107.922</v>
+        <v>838.05100000000004</v>
       </c>
       <c r="F41">
-        <v>277.86099999999999</v>
+        <v>256.62299999999999</v>
       </c>
       <c r="G41">
-        <v>2851.8069999999998</v>
+        <v>2789.9839999999999</v>
       </c>
       <c r="H41">
-        <v>15751.821</v>
+        <v>12245.299000000001</v>
       </c>
       <c r="I41">
-        <v>723.35599999999999</v>
+        <v>330.48700000000002</v>
       </c>
       <c r="J41">
-        <v>6378.1729999999998</v>
+        <v>5319.0680000000002</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>93.99</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>818.28599999999994</v>
+        <v>439.44299999999998</v>
       </c>
       <c r="O41">
-        <v>8345.5130000000008</v>
+        <v>5991.5150000000003</v>
       </c>
       <c r="P41">
-        <v>6555.0590000000002</v>
+        <v>5426.7709999999997</v>
       </c>
       <c r="Q41">
-        <v>-537.10299999999995</v>
+        <v>-43.625</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>7406.308</v>
+        <v>6253.7839999999997</v>
       </c>
       <c r="U41">
-        <v>197.119</v>
+        <v>52.634999999999998</v>
       </c>
       <c r="V41">
-        <v>219.90100000000001</v>
+        <v>154.631</v>
       </c>
       <c r="W41">
-        <v>-199.54599999999999</v>
+        <v>-149.625</v>
       </c>
       <c r="X41">
-        <v>-525.79600000000005</v>
+        <v>-32.622999999999998</v>
       </c>
       <c r="Y41">
-        <v>175.00200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>10.592000000000001</v>
+        <v>67.072000000000003</v>
       </c>
       <c r="AA41">
-        <v>-63.417000000000002</v>
+        <v>22.655000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>141.917</v>
       </c>
       <c r="D42">
+        <v>339.70800000000003</v>
+      </c>
+      <c r="E42">
+        <v>851.02700000000004</v>
+      </c>
+      <c r="F42">
+        <v>281.435</v>
+      </c>
+      <c r="G42">
+        <v>3943.5039999999999</v>
+      </c>
+      <c r="H42">
+        <v>13331.923000000001</v>
+      </c>
+      <c r="I42">
+        <v>313.80599999999998</v>
+      </c>
+      <c r="J42">
+        <v>4554.1580000000004</v>
+      </c>
+      <c r="K42">
+        <v>92.186999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>405.99299999999999</v>
+      </c>
+      <c r="O42">
+        <v>5185.8760000000002</v>
+      </c>
+      <c r="P42">
+        <v>4646.3450000000003</v>
+      </c>
+      <c r="Q42">
+        <v>984.06600000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>148</v>
+      </c>
+      <c r="T42">
+        <v>8146.0469999999996</v>
+      </c>
+      <c r="U42">
+        <v>1036.701</v>
+      </c>
+      <c r="V42">
+        <v>149.77000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-156.357</v>
+      </c>
+      <c r="X42">
+        <v>938.26</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>108.242</v>
+      </c>
+      <c r="AA42">
+        <v>141.917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>70.093000000000004</v>
+      </c>
+      <c r="D43">
+        <v>331.12799999999999</v>
+      </c>
+      <c r="E43">
+        <v>866.00800000000004</v>
+      </c>
+      <c r="F43">
+        <v>284.28300000000002</v>
+      </c>
+      <c r="G43">
+        <v>7278.6679999999997</v>
+      </c>
+      <c r="H43">
+        <v>17499.651999999998</v>
+      </c>
+      <c r="I43">
+        <v>312.86900000000003</v>
+      </c>
+      <c r="J43">
+        <v>7606.6040000000003</v>
+      </c>
+      <c r="K43">
+        <v>90.697999999999993</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-21.137</v>
+      </c>
+      <c r="N43">
+        <v>412.25599999999997</v>
+      </c>
+      <c r="O43">
+        <v>8232.2039999999997</v>
+      </c>
+      <c r="P43">
+        <v>7704.7309999999998</v>
+      </c>
+      <c r="Q43">
+        <v>2951.9209999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>9267.4480000000003</v>
+      </c>
+      <c r="U43">
+        <v>3988.6219999999998</v>
+      </c>
+      <c r="V43">
+        <v>149.827</v>
+      </c>
+      <c r="W43">
+        <v>-184.209</v>
+      </c>
+      <c r="X43">
+        <v>3377.5970000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>70.093000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>228.75899999999999</v>
+      </c>
+      <c r="D44">
+        <v>482.4</v>
+      </c>
+      <c r="E44">
+        <v>6913.433</v>
+      </c>
+      <c r="F44">
+        <v>435.80399999999997</v>
+      </c>
+      <c r="G44">
+        <v>7345.4669999999996</v>
+      </c>
+      <c r="H44">
+        <v>17693.058000000001</v>
+      </c>
+      <c r="I44">
+        <v>579.91600000000005</v>
+      </c>
+      <c r="J44">
+        <v>7496.4589999999998</v>
+      </c>
+      <c r="K44">
+        <v>89.465999999999994</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>670.48800000000006</v>
+      </c>
+      <c r="O44">
+        <v>8371.7900000000009</v>
+      </c>
+      <c r="P44">
+        <v>7585.9250000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-3712.4169999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>9321.268</v>
+      </c>
+      <c r="U44">
+        <v>276.20499999999998</v>
+      </c>
+      <c r="V44">
+        <v>282.988</v>
+      </c>
+      <c r="W44">
+        <v>-200.70599999999999</v>
+      </c>
+      <c r="X44">
+        <v>-306.25700000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-94.078999999999994</v>
+      </c>
+      <c r="AA44">
+        <v>228.75899999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>172.19499999999999</v>
+      </c>
+      <c r="D45">
+        <v>441.22899999999998</v>
+      </c>
+      <c r="E45">
+        <v>6966.2539999999999</v>
+      </c>
+      <c r="F45">
+        <v>383.56700000000001</v>
+      </c>
+      <c r="G45">
+        <v>7162.4380000000001</v>
+      </c>
+      <c r="H45">
+        <v>17439.377</v>
+      </c>
+      <c r="I45">
+        <v>248.49799999999999</v>
+      </c>
+      <c r="J45">
+        <v>7570.1369999999997</v>
+      </c>
+      <c r="K45">
+        <v>89.325000000000003</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>349.67099999999999</v>
+      </c>
+      <c r="O45">
+        <v>8122.3249999999998</v>
+      </c>
+      <c r="P45">
+        <v>7671.31</v>
+      </c>
+      <c r="Q45">
+        <v>-231.345</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>9317.0519999999997</v>
+      </c>
+      <c r="U45">
+        <v>44.86</v>
+      </c>
+      <c r="V45">
+        <v>154.10599999999999</v>
+      </c>
+      <c r="W45">
+        <v>-201.13300000000001</v>
+      </c>
+      <c r="X45">
+        <v>-99.08</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-22.071000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>172.19499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>67.843999999999994</v>
+      </c>
+      <c r="D46">
+        <v>457.339</v>
+      </c>
+      <c r="E46">
+        <v>7021.0780000000004</v>
+      </c>
+      <c r="F46">
+        <v>388.291</v>
+      </c>
+      <c r="G46">
+        <v>7312.6850000000004</v>
+      </c>
+      <c r="H46">
+        <v>17408.474999999999</v>
+      </c>
+      <c r="I46">
+        <v>275.47800000000001</v>
+      </c>
+      <c r="J46">
+        <v>7640.9989999999998</v>
+      </c>
+      <c r="K46">
+        <v>87.984999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>363.46300000000002</v>
+      </c>
+      <c r="O46">
+        <v>8187.8530000000001</v>
+      </c>
+      <c r="P46">
+        <v>7728.9840000000004</v>
+      </c>
+      <c r="Q46">
+        <v>-11.353999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>147</v>
+      </c>
+      <c r="T46">
+        <v>9220.6219999999994</v>
+      </c>
+      <c r="U46">
+        <v>33.506</v>
+      </c>
+      <c r="V46">
+        <v>137.24</v>
+      </c>
+      <c r="W46">
+        <v>-201.64099999999999</v>
+      </c>
+      <c r="X46">
+        <v>-119.13200000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="AA46">
+        <v>67.843999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>193.38</v>
+      </c>
+      <c r="D47">
+        <v>455.827</v>
+      </c>
+      <c r="E47">
+        <v>7068.1440000000002</v>
+      </c>
+      <c r="F47">
+        <v>388.49400000000003</v>
+      </c>
+      <c r="G47">
+        <v>7574.973</v>
+      </c>
+      <c r="H47">
+        <v>17725.319</v>
+      </c>
+      <c r="I47">
+        <v>507.64499999999998</v>
+      </c>
+      <c r="J47">
+        <v>7621.192</v>
+      </c>
+      <c r="K47">
+        <v>86.733999999999995</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-464.05700000000002</v>
+      </c>
+      <c r="N47">
+        <v>606.226</v>
+      </c>
+      <c r="O47">
+        <v>8415.357</v>
+      </c>
+      <c r="P47">
+        <v>7719.7730000000001</v>
+      </c>
+      <c r="Q47">
+        <v>313.91899999999998</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>9309.9619999999995</v>
+      </c>
+      <c r="U47">
+        <v>347.42500000000001</v>
+      </c>
+      <c r="V47">
+        <v>186.46799999999999</v>
+      </c>
+      <c r="W47">
+        <v>-211.06700000000001</v>
+      </c>
+      <c r="X47">
+        <v>158.59700000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="AA47">
+        <v>193.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>202.024</v>
+      </c>
+      <c r="D48">
+        <v>447.10599999999999</v>
+      </c>
+      <c r="E48">
+        <v>7118.4930000000004</v>
+      </c>
+      <c r="F48">
+        <v>377.05799999999999</v>
+      </c>
+      <c r="G48">
+        <v>7456.4319999999998</v>
+      </c>
+      <c r="H48">
+        <v>17789.768</v>
+      </c>
+      <c r="I48">
+        <v>260.44099999999997</v>
+      </c>
+      <c r="J48">
+        <v>7570.8410000000003</v>
+      </c>
+      <c r="K48">
+        <v>84.06</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>344.50099999999998</v>
+      </c>
+      <c r="O48">
+        <v>8098.8289999999997</v>
+      </c>
+      <c r="P48">
+        <v>7654.9009999999998</v>
+      </c>
+      <c r="Q48">
+        <v>-177.78899999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>9690.9390000000003</v>
+      </c>
+      <c r="U48">
+        <v>169.636</v>
+      </c>
+      <c r="V48">
+        <v>297.08300000000003</v>
+      </c>
+      <c r="W48">
+        <v>-211.785</v>
+      </c>
+      <c r="X48">
+        <v>-192.476</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-216.04599999999999</v>
+      </c>
+      <c r="AA48">
+        <v>202.024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>196.108</v>
+      </c>
+      <c r="D49">
+        <v>468.06599999999997</v>
+      </c>
+      <c r="E49">
+        <v>7174.7659999999996</v>
+      </c>
+      <c r="F49">
+        <v>395.41300000000001</v>
+      </c>
+      <c r="G49">
+        <v>7646.8249999999998</v>
+      </c>
+      <c r="H49">
+        <v>18079.335999999999</v>
+      </c>
+      <c r="I49">
+        <v>255.20699999999999</v>
+      </c>
+      <c r="J49">
+        <v>7834.82</v>
+      </c>
+      <c r="K49">
+        <v>84.58</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>345.67</v>
+      </c>
+      <c r="O49">
+        <v>8351.4830000000002</v>
+      </c>
+      <c r="P49">
+        <v>7919.634</v>
+      </c>
+      <c r="Q49">
+        <v>-73.16</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>9727.8529999999992</v>
+      </c>
+      <c r="U49">
+        <v>96.475999999999999</v>
+      </c>
+      <c r="V49">
+        <v>237.40199999999999</v>
+      </c>
+      <c r="W49">
+        <v>-215.376</v>
+      </c>
+      <c r="X49">
+        <v>26.594000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>196.108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>241.02799999999999</v>
+      </c>
+      <c r="D50">
+        <v>508.971</v>
+      </c>
+      <c r="E50">
+        <v>7221.8370000000004</v>
+      </c>
+      <c r="F50">
+        <v>438.28899999999999</v>
+      </c>
+      <c r="G50">
+        <v>7850.0469999999996</v>
+      </c>
+      <c r="H50">
+        <v>19915.555</v>
+      </c>
+      <c r="I50">
+        <v>293.99400000000003</v>
+      </c>
+      <c r="J50">
+        <v>8613.5910000000003</v>
+      </c>
+      <c r="K50">
+        <v>81.957999999999998</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>375.952</v>
+      </c>
+      <c r="O50">
+        <v>9161.7780000000002</v>
+      </c>
+      <c r="P50">
+        <v>8695.5490000000009</v>
+      </c>
+      <c r="Q50">
+        <v>151.197</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>149</v>
+      </c>
+      <c r="T50">
+        <v>10753.777</v>
+      </c>
+      <c r="U50">
+        <v>247.673</v>
+      </c>
+      <c r="V50">
+        <v>313.91699999999997</v>
+      </c>
+      <c r="W50">
+        <v>-227.078</v>
+      </c>
+      <c r="X50">
+        <v>1500.7339999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>241.02799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>230.58500000000001</v>
+      </c>
+      <c r="D51">
+        <v>511.18599999999998</v>
+      </c>
+      <c r="E51">
+        <v>7277.1170000000002</v>
+      </c>
+      <c r="F51">
+        <v>438.5</v>
+      </c>
+      <c r="G51">
+        <v>7662.2089999999998</v>
+      </c>
+      <c r="H51">
+        <v>19732.731</v>
+      </c>
+      <c r="I51">
+        <v>226.16300000000001</v>
+      </c>
+      <c r="J51">
+        <v>8479.0949999999993</v>
+      </c>
+      <c r="K51">
+        <v>78.835999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-162.13499999999999</v>
+      </c>
+      <c r="N51">
+        <v>305.07799999999997</v>
+      </c>
+      <c r="O51">
+        <v>8950.6720000000005</v>
+      </c>
+      <c r="P51">
+        <v>8558.01</v>
+      </c>
+      <c r="Q51">
+        <v>-200.126</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>10782.058999999999</v>
+      </c>
+      <c r="U51">
+        <v>47.546999999999997</v>
+      </c>
+      <c r="V51">
+        <v>214.35</v>
+      </c>
+      <c r="W51">
+        <v>-238.46700000000001</v>
+      </c>
+      <c r="X51">
+        <v>-357.11599999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>28.597999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>230.58500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>213.40100000000001</v>
+      </c>
+      <c r="D52">
+        <v>512.23900000000003</v>
+      </c>
+      <c r="E52">
+        <v>7330.8630000000003</v>
+      </c>
+      <c r="F52">
+        <v>438.35199999999998</v>
+      </c>
+      <c r="G52">
+        <v>8001.6570000000002</v>
+      </c>
+      <c r="H52">
+        <v>20051.793000000001</v>
+      </c>
+      <c r="I52">
+        <v>304.017</v>
+      </c>
+      <c r="J52">
+        <v>8697.8770000000004</v>
+      </c>
+      <c r="K52">
+        <v>78.632999999999996</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>382.65100000000001</v>
+      </c>
+      <c r="O52">
+        <v>9253.5339999999997</v>
+      </c>
+      <c r="P52">
+        <v>8776.5110000000004</v>
+      </c>
+      <c r="Q52">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>10798.259</v>
+      </c>
+      <c r="U52">
+        <v>53.113999999999997</v>
+      </c>
+      <c r="V52">
+        <v>357.25200000000001</v>
+      </c>
+      <c r="W52">
+        <v>-238.98599999999999</v>
+      </c>
+      <c r="X52">
+        <v>11.827</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-16.37</v>
+      </c>
+      <c r="AA52">
+        <v>213.40100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>233.756</v>
+      </c>
+      <c r="D53">
+        <v>546.15700000000004</v>
+      </c>
+      <c r="E53">
+        <v>7379.2089999999998</v>
+      </c>
+      <c r="F53">
+        <v>470.74</v>
+      </c>
+      <c r="G53">
+        <v>8008.415</v>
+      </c>
+      <c r="H53">
+        <v>19889.508999999998</v>
+      </c>
+      <c r="I53">
+        <v>292.786</v>
+      </c>
+      <c r="J53">
+        <v>8494.2690000000002</v>
+      </c>
+      <c r="K53">
+        <v>77.503</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>370.28899999999999</v>
+      </c>
+      <c r="O53">
+        <v>9039.2720000000008</v>
+      </c>
+      <c r="P53">
+        <v>8571.7720000000008</v>
+      </c>
+      <c r="Q53">
+        <v>-3.7</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>10850.236999999999</v>
+      </c>
+      <c r="U53">
+        <v>49.414000000000001</v>
+      </c>
+      <c r="V53">
+        <v>272.07799999999997</v>
+      </c>
+      <c r="W53">
+        <v>-239.416</v>
+      </c>
+      <c r="X53">
+        <v>-423.35</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AA53">
+        <v>233.756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>293.09500000000003</v>
+      </c>
+      <c r="D54">
+        <v>530.29700000000003</v>
+      </c>
+      <c r="E54">
+        <v>7549.8119999999999</v>
+      </c>
+      <c r="F54">
+        <v>447.81400000000002</v>
+      </c>
+      <c r="G54">
+        <v>8273.4169999999995</v>
+      </c>
+      <c r="H54">
+        <v>20075.87</v>
+      </c>
+      <c r="I54">
+        <v>318.42700000000002</v>
+      </c>
+      <c r="J54">
+        <v>8586.7180000000008</v>
+      </c>
+      <c r="K54">
+        <v>74.909000000000006</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>393.33600000000001</v>
+      </c>
+      <c r="O54">
+        <v>9144.7360000000008</v>
+      </c>
+      <c r="P54">
+        <v>8661.6270000000004</v>
+      </c>
+      <c r="Q54">
+        <v>251.142</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>154</v>
+      </c>
+      <c r="T54">
+        <v>10931.134</v>
+      </c>
+      <c r="U54">
+        <v>300.55599999999998</v>
+      </c>
+      <c r="V54">
+        <v>305.30700000000002</v>
+      </c>
+      <c r="W54">
+        <v>-239.816</v>
+      </c>
+      <c r="X54">
+        <v>-131.77699999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>12.907999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>293.09500000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>259.11099999999999</v>
+      </c>
+      <c r="D55">
+        <v>529.99199999999996</v>
+      </c>
+      <c r="E55">
+        <v>7599.759</v>
+      </c>
+      <c r="F55">
+        <v>453.79</v>
+      </c>
+      <c r="G55">
+        <v>8062.9650000000001</v>
+      </c>
+      <c r="H55">
+        <v>19858.678</v>
+      </c>
+      <c r="I55">
+        <v>264.79599999999999</v>
+      </c>
+      <c r="J55">
+        <v>8387.7960000000003</v>
+      </c>
+      <c r="K55">
+        <v>74.096999999999994</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-562.73900000000003</v>
+      </c>
+      <c r="N55">
+        <v>338.89299999999997</v>
+      </c>
+      <c r="O55">
+        <v>8889.1049999999996</v>
+      </c>
+      <c r="P55">
+        <v>8461.893</v>
+      </c>
+      <c r="Q55">
+        <v>-250.81800000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>10969.573</v>
+      </c>
+      <c r="U55">
+        <v>49.738</v>
+      </c>
+      <c r="V55">
+        <v>247.18100000000001</v>
+      </c>
+      <c r="W55">
+        <v>-250.19800000000001</v>
+      </c>
+      <c r="X55">
+        <v>-451.45</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AA55">
+        <v>259.11099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>218.88499999999999</v>
+      </c>
+      <c r="D56">
+        <v>536.12099999999998</v>
+      </c>
+      <c r="E56">
+        <v>7649.3630000000003</v>
+      </c>
+      <c r="F56">
+        <v>449.84800000000001</v>
+      </c>
+      <c r="G56">
+        <v>8125.4790000000003</v>
+      </c>
+      <c r="H56">
+        <v>20144.169000000002</v>
+      </c>
+      <c r="I56">
+        <v>327.28100000000001</v>
+      </c>
+      <c r="J56">
+        <v>8613.0920000000006</v>
+      </c>
+      <c r="K56">
+        <v>73.02</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>400.30099999999999</v>
+      </c>
+      <c r="O56">
+        <v>9171.5750000000007</v>
+      </c>
+      <c r="P56">
+        <v>8686.1119999999992</v>
+      </c>
+      <c r="Q56">
+        <v>4.3319999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>10972.593999999999</v>
+      </c>
+      <c r="U56">
+        <v>54.07</v>
+      </c>
+      <c r="V56">
+        <v>360.524</v>
+      </c>
+      <c r="W56">
+        <v>-250.166</v>
+      </c>
+      <c r="X56">
+        <v>-17.547999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>218.88499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>247.654</v>
+      </c>
+      <c r="D57">
+        <v>596.63800000000003</v>
+      </c>
+      <c r="E57">
+        <v>7626.9179999999997</v>
+      </c>
+      <c r="F57">
+        <v>491.56400000000002</v>
+      </c>
+      <c r="G57">
+        <v>8198.6980000000003</v>
+      </c>
+      <c r="H57">
+        <v>20744.89</v>
+      </c>
+      <c r="I57">
+        <v>320.29199999999997</v>
+      </c>
+      <c r="J57">
+        <v>9125.7090000000007</v>
+      </c>
+      <c r="K57">
+        <v>97.844999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>418.137</v>
+      </c>
+      <c r="O57">
+        <v>9708.7160000000003</v>
+      </c>
+      <c r="P57">
+        <v>9223.5540000000001</v>
+      </c>
+      <c r="Q57">
+        <v>29.460999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>11036.174000000001</v>
+      </c>
+      <c r="U57">
+        <v>83.531000000000006</v>
+      </c>
+      <c r="V57">
+        <v>275.31700000000001</v>
+      </c>
+      <c r="W57">
+        <v>-250.471</v>
+      </c>
+      <c r="X57">
+        <v>326.173</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-372.24799999999999</v>
+      </c>
+      <c r="AA57">
+        <v>247.654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>196.583</v>
+      </c>
+      <c r="D58">
+        <v>603.52800000000002</v>
+      </c>
+      <c r="E58">
+        <v>7672.5370000000003</v>
+      </c>
+      <c r="F58">
+        <v>469.33199999999999</v>
+      </c>
+      <c r="G58">
+        <v>8853.2839999999997</v>
+      </c>
+      <c r="H58">
+        <v>21331.436000000002</v>
+      </c>
+      <c r="I58">
+        <v>432.93400000000003</v>
+      </c>
+      <c r="J58">
+        <v>9624.2469999999994</v>
+      </c>
+      <c r="K58">
+        <v>97.022000000000006</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>529.95600000000002</v>
+      </c>
+      <c r="O58">
+        <v>10334.337</v>
+      </c>
+      <c r="P58">
+        <v>9721.2690000000002</v>
+      </c>
+      <c r="Q58">
+        <v>100.279</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>170</v>
+      </c>
+      <c r="T58">
+        <v>10997.099</v>
+      </c>
+      <c r="U58">
+        <v>183.81</v>
+      </c>
+      <c r="V58">
+        <v>365.59899999999999</v>
+      </c>
+      <c r="W58">
+        <v>-250.72399999999999</v>
+      </c>
+      <c r="X58">
+        <v>287.62200000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AA58">
+        <v>196.583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-240.614</v>
+      </c>
+      <c r="D59">
+        <v>610.79100000000005</v>
+      </c>
+      <c r="E59">
+        <v>7227.06</v>
+      </c>
+      <c r="F59">
+        <v>475.37</v>
+      </c>
+      <c r="G59">
+        <v>8475.7870000000003</v>
+      </c>
+      <c r="H59">
+        <v>21024.441999999999</v>
+      </c>
+      <c r="I59">
+        <v>305.32299999999998</v>
+      </c>
+      <c r="J59">
+        <v>9898.8359999999993</v>
+      </c>
+      <c r="K59">
+        <v>95.747</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-661.86</v>
+      </c>
+      <c r="N59">
+        <v>401.07</v>
+      </c>
+      <c r="O59">
+        <v>10468.796</v>
+      </c>
+      <c r="P59">
+        <v>9994.5830000000005</v>
+      </c>
+      <c r="Q59">
+        <v>-46.64</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>10555.646000000001</v>
+      </c>
+      <c r="U59">
+        <v>137.16999999999999</v>
+      </c>
+      <c r="V59">
+        <v>230.06800000000001</v>
+      </c>
+      <c r="W59">
+        <v>-260.68599999999998</v>
+      </c>
+      <c r="X59">
+        <v>51.722000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-26.257000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>-240.614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>164.88499999999999</v>
+      </c>
+      <c r="D60">
+        <v>607.53200000000004</v>
+      </c>
+      <c r="E60">
+        <v>7277.5860000000002</v>
+      </c>
+      <c r="F60">
+        <v>452.78300000000002</v>
+      </c>
+      <c r="G60">
+        <v>8348.3459999999995</v>
+      </c>
+      <c r="H60">
+        <v>22348.127</v>
+      </c>
+      <c r="I60">
+        <v>425.05099999999999</v>
+      </c>
+      <c r="J60">
+        <v>11125.228999999999</v>
+      </c>
+      <c r="K60">
+        <v>95.144000000000005</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>520.19500000000005</v>
+      </c>
+      <c r="O60">
+        <v>11821.13</v>
+      </c>
+      <c r="P60">
+        <v>11220.373</v>
+      </c>
+      <c r="Q60">
+        <v>-21.4</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>10526.996999999999</v>
+      </c>
+      <c r="U60">
+        <v>115.77</v>
+      </c>
+      <c r="V60">
+        <v>363.91800000000001</v>
+      </c>
+      <c r="W60">
+        <v>-261.21199999999999</v>
+      </c>
+      <c r="X60">
+        <v>931.32</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-3.2610000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>164.88499999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>115.36199999999999</v>
+      </c>
+      <c r="D61">
+        <v>657.49900000000002</v>
+      </c>
+      <c r="E61">
+        <v>7319.3190000000004</v>
+      </c>
+      <c r="F61">
+        <v>482.43099999999998</v>
+      </c>
+      <c r="G61">
+        <v>8306.1190000000006</v>
+      </c>
+      <c r="H61">
+        <v>22192.973000000002</v>
+      </c>
+      <c r="I61">
+        <v>394.18299999999999</v>
+      </c>
+      <c r="J61">
+        <v>11057.897000000001</v>
+      </c>
+      <c r="K61">
+        <v>94.561000000000007</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>488.82100000000003</v>
+      </c>
+      <c r="O61">
+        <v>11732.516</v>
+      </c>
+      <c r="P61">
+        <v>11152.535</v>
+      </c>
+      <c r="Q61">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>10460.457</v>
+      </c>
+      <c r="U61">
+        <v>120.498</v>
+      </c>
+      <c r="V61">
+        <v>273.67399999999998</v>
+      </c>
+      <c r="W61">
+        <v>-261.68</v>
+      </c>
+      <c r="X61">
+        <v>-227.16200000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>115.36199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1166.5730000000001</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>7976.174</v>
+      </c>
+      <c r="H62">
+        <v>21449.848999999998</v>
+      </c>
+      <c r="I62">
+        <v>430.786</v>
+      </c>
+      <c r="J62">
+        <v>10974.558000000001</v>
+      </c>
+      <c r="K62">
+        <v>94.444999999999993</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>550.49699999999996</v>
+      </c>
+      <c r="O62">
+        <v>11703.531999999999</v>
+      </c>
+      <c r="P62">
+        <v>11069.003000000001</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>187</v>
+      </c>
+      <c r="T62">
+        <v>9746.3169999999991</v>
+      </c>
+      <c r="U62">
+        <v>340.44200000000001</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>116.119</v>
+      </c>
+      <c r="D63">
+        <v>520.45699999999999</v>
+      </c>
+      <c r="E63">
+        <v>6279.8980000000001</v>
+      </c>
+      <c r="F63">
+        <v>342.02499999999998</v>
+      </c>
+      <c r="G63">
+        <v>7505.982</v>
+      </c>
+      <c r="H63">
+        <v>21199.927</v>
+      </c>
+      <c r="I63">
+        <v>425.76</v>
+      </c>
+      <c r="J63">
+        <v>10673.275</v>
+      </c>
+      <c r="K63">
+        <v>28</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-536.91800000000001</v>
+      </c>
+      <c r="N63">
+        <v>713.87699999999995</v>
+      </c>
+      <c r="O63">
+        <v>11569.602000000001</v>
+      </c>
+      <c r="P63">
+        <v>10943.328</v>
+      </c>
+      <c r="Q63">
+        <v>-251.83500000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9630.3250000000007</v>
+      </c>
+      <c r="U63">
+        <v>94.665000000000006</v>
+      </c>
+      <c r="V63">
+        <v>268.61700000000002</v>
+      </c>
+      <c r="W63">
+        <v>-268.18599999999998</v>
+      </c>
+      <c r="X63">
+        <v>-354.40199999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-4.8</v>
+      </c>
+      <c r="AA63">
+        <v>116.119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>301.71699999999998</v>
+      </c>
+      <c r="D64">
+        <v>538.33500000000004</v>
+      </c>
+      <c r="E64">
+        <v>6287.3459999999995</v>
+      </c>
+      <c r="F64">
+        <v>358.43200000000002</v>
+      </c>
+      <c r="G64">
+        <v>7622.7489999999998</v>
+      </c>
+      <c r="H64">
+        <v>21116.456999999999</v>
+      </c>
+      <c r="I64">
+        <v>474.27499999999998</v>
+      </c>
+      <c r="J64">
+        <v>10635.769</v>
+      </c>
+      <c r="K64">
+        <v>93.012</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>618.81399999999996</v>
+      </c>
+      <c r="O64">
+        <v>11440.069</v>
+      </c>
+      <c r="P64">
+        <v>10763.307000000001</v>
+      </c>
+      <c r="Q64">
+        <v>21.785</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>9676.3880000000008</v>
+      </c>
+      <c r="U64">
+        <v>116.45</v>
+      </c>
+      <c r="V64">
+        <v>398.29500000000002</v>
+      </c>
+      <c r="W64">
+        <v>-268.875</v>
+      </c>
+      <c r="X64">
+        <v>-388.346</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>301.71699999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>151.25</v>
+      </c>
+      <c r="D65">
+        <v>530.55700000000002</v>
+      </c>
+      <c r="E65">
+        <v>6281.95</v>
+      </c>
+      <c r="F65">
+        <v>340.08</v>
+      </c>
+      <c r="G65">
+        <v>7542.53</v>
+      </c>
+      <c r="H65">
+        <v>21188.544999999998</v>
+      </c>
+      <c r="I65">
+        <v>480.47500000000002</v>
+      </c>
+      <c r="J65">
+        <v>10802.591</v>
+      </c>
+      <c r="K65">
+        <v>93.876000000000005</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>627.97900000000004</v>
+      </c>
+      <c r="O65">
+        <v>11613.111000000001</v>
+      </c>
+      <c r="P65">
+        <v>10927.093000000001</v>
+      </c>
+      <c r="Q65">
+        <v>16.440999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>9575.4339999999993</v>
+      </c>
+      <c r="U65">
+        <v>132.89099999999999</v>
+      </c>
+      <c r="V65">
+        <v>331.72</v>
+      </c>
+      <c r="W65">
+        <v>-269.18200000000002</v>
+      </c>
+      <c r="X65">
+        <v>-154.58000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="AA65">
+        <v>151.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>58.661000000000001</v>
+      </c>
+      <c r="D66">
+        <v>539.94500000000005</v>
+      </c>
+      <c r="E66">
+        <v>797.70500000000004</v>
+      </c>
+      <c r="F66">
+        <v>340.53699999999998</v>
+      </c>
+      <c r="G66">
+        <v>2670.5149999999999</v>
+      </c>
+      <c r="H66">
+        <v>15759.264999999999</v>
+      </c>
+      <c r="I66">
+        <v>417.36</v>
+      </c>
+      <c r="J66">
+        <v>9097.11</v>
+      </c>
+      <c r="K66">
+        <v>92.385000000000005</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>513.52099999999996</v>
+      </c>
+      <c r="O66">
+        <v>9817.9570000000003</v>
+      </c>
+      <c r="P66">
+        <v>9189.4950000000008</v>
+      </c>
+      <c r="Q66">
+        <v>-56.517000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>188</v>
+      </c>
+      <c r="T66">
+        <v>5941.308</v>
+      </c>
+      <c r="U66">
+        <v>94.73</v>
+      </c>
+      <c r="V66">
+        <v>215.499</v>
+      </c>
+      <c r="W66">
+        <v>-173.29900000000001</v>
+      </c>
+      <c r="X66">
+        <v>-156.93700000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>245.881</v>
+      </c>
+      <c r="AA66">
+        <v>58.661000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>461.14499999999998</v>
+      </c>
+      <c r="D67">
+        <v>492.16800000000001</v>
+      </c>
+      <c r="E67">
+        <v>1060.165</v>
+      </c>
+      <c r="F67">
+        <v>332.03</v>
+      </c>
+      <c r="G67">
+        <v>2673.5709999999999</v>
+      </c>
+      <c r="H67">
+        <v>14855.868</v>
+      </c>
+      <c r="I67">
+        <v>340.745</v>
+      </c>
+      <c r="J67">
+        <v>8050.8860000000004</v>
+      </c>
+      <c r="K67">
+        <v>91.263000000000005</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1060.271</v>
+      </c>
+      <c r="N67">
+        <v>435.47399999999999</v>
+      </c>
+      <c r="O67">
+        <v>8682.393</v>
+      </c>
+      <c r="P67">
+        <v>8145.6149999999998</v>
+      </c>
+      <c r="Q67">
+        <v>687.93</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6173.4750000000004</v>
+      </c>
+      <c r="U67">
+        <v>764.11400000000003</v>
+      </c>
+      <c r="V67">
+        <v>193.12899999999999</v>
+      </c>
+      <c r="W67">
+        <v>-173.62899999999999</v>
+      </c>
+      <c r="X67">
+        <v>-1238.9690000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>178.125</v>
+      </c>
+      <c r="AA67">
+        <v>461.14499999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>19.382999999999999</v>
+      </c>
+      <c r="D68">
+        <v>458.928</v>
+      </c>
+      <c r="E68">
+        <v>1069.231</v>
+      </c>
+      <c r="F68">
+        <v>248.21600000000001</v>
+      </c>
+      <c r="G68">
+        <v>1916.252</v>
+      </c>
+      <c r="H68">
+        <v>14102.575000000001</v>
+      </c>
+      <c r="I68">
+        <v>380.91399999999999</v>
+      </c>
+      <c r="J68">
+        <v>7397.616</v>
+      </c>
+      <c r="K68">
+        <v>94.801000000000002</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>477.4</v>
+      </c>
+      <c r="O68">
+        <v>8073.634</v>
+      </c>
+      <c r="P68">
+        <v>7494.1019999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-371.47399999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6028.9409999999998</v>
+      </c>
+      <c r="U68">
+        <v>391.96499999999997</v>
+      </c>
+      <c r="V68">
+        <v>238.46</v>
+      </c>
+      <c r="W68">
+        <v>-173.489</v>
+      </c>
+      <c r="X68">
+        <v>-853.19799999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>351.94099999999997</v>
+      </c>
+      <c r="AA68">
+        <v>19.382999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-7.657</v>
+      </c>
+      <c r="D69">
+        <v>454.02300000000002</v>
+      </c>
+      <c r="E69">
+        <v>1063.3019999999999</v>
+      </c>
+      <c r="F69">
+        <v>298.10500000000002</v>
+      </c>
+      <c r="G69">
+        <v>1842.55</v>
+      </c>
+      <c r="H69">
+        <v>13904.081</v>
+      </c>
+      <c r="I69">
+        <v>368.74</v>
+      </c>
+      <c r="J69">
+        <v>7373.518</v>
+      </c>
+      <c r="K69">
+        <v>94.817999999999998</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>473.05799999999999</v>
+      </c>
+      <c r="O69">
+        <v>8049.85</v>
+      </c>
+      <c r="P69">
+        <v>7469.183</v>
+      </c>
+      <c r="Q69">
+        <v>-292.42399999999998</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5854.2309999999998</v>
+      </c>
+      <c r="U69">
+        <v>133.887</v>
+      </c>
+      <c r="V69">
+        <v>206.30699999999999</v>
+      </c>
+      <c r="W69">
+        <v>-173.661</v>
+      </c>
+      <c r="X69">
+        <v>-262.79599999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-0.72699999999999998</v>
+      </c>
+      <c r="AA69">
+        <v>-7.657</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-58.701999999999998</v>
+      </c>
+      <c r="D70">
+        <v>443.25900000000001</v>
+      </c>
+      <c r="E70">
+        <v>755.08500000000004</v>
+      </c>
+      <c r="F70">
+        <v>95.131</v>
+      </c>
+      <c r="G70">
+        <v>1567.6279999999999</v>
+      </c>
+      <c r="H70">
+        <v>14088.460999999999</v>
+      </c>
+      <c r="I70">
+        <v>388.28699999999998</v>
+      </c>
+      <c r="J70">
+        <v>7788.7839999999997</v>
+      </c>
+      <c r="K70">
+        <v>94.165000000000006</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>496.483</v>
+      </c>
+      <c r="O70">
+        <v>8493.5229999999992</v>
+      </c>
+      <c r="P70">
+        <v>7882.9489999999996</v>
+      </c>
+      <c r="Q70">
+        <v>-78.819000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>190</v>
+      </c>
+      <c r="T70">
+        <v>5594.9380000000001</v>
+      </c>
+      <c r="U70">
+        <v>55.305999999999997</v>
+      </c>
+      <c r="V70">
+        <v>209.14500000000001</v>
+      </c>
+      <c r="W70">
+        <v>-174.17599999999999</v>
+      </c>
+      <c r="X70">
+        <v>206.50200000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>20.119</v>
+      </c>
+      <c r="AA70">
+        <v>-58.701999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>40.231999999999999</v>
+      </c>
+      <c r="D71">
+        <v>479.197</v>
+      </c>
+      <c r="E71">
+        <v>764.93100000000004</v>
+      </c>
+      <c r="F71">
+        <v>304.45</v>
+      </c>
+      <c r="G71">
+        <v>1366.066</v>
+      </c>
+      <c r="H71">
+        <v>14067.571</v>
+      </c>
+      <c r="I71">
+        <v>373.327</v>
+      </c>
+      <c r="J71">
+        <v>7871.0169999999998</v>
+      </c>
+      <c r="K71">
+        <v>93.855999999999995</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-171.172</v>
+      </c>
+      <c r="N71">
+        <v>495.08</v>
+      </c>
+      <c r="O71">
+        <v>8586.6479999999992</v>
+      </c>
+      <c r="P71">
+        <v>7967.5219999999999</v>
+      </c>
+      <c r="Q71">
+        <v>35.765000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5480.9229999999998</v>
+      </c>
+      <c r="U71">
+        <v>86.021000000000001</v>
+      </c>
+      <c r="V71">
+        <v>196.16399999999999</v>
+      </c>
+      <c r="W71">
+        <v>-174.149</v>
+      </c>
+      <c r="X71">
+        <v>-171.238</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>135.99799999999999</v>
+      </c>
+      <c r="AA71">
+        <v>40.231999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>89.941999999999993</v>
+      </c>
+      <c r="D72">
+        <v>469.55099999999999</v>
+      </c>
+      <c r="E72">
+        <v>756.53499999999997</v>
+      </c>
+      <c r="F72">
+        <v>293.28100000000001</v>
+      </c>
+      <c r="G72">
+        <v>2012.3040000000001</v>
+      </c>
+      <c r="H72">
+        <v>13451.387000000001</v>
+      </c>
+      <c r="I72">
+        <v>397.214</v>
+      </c>
+      <c r="J72">
+        <v>7309.9679999999998</v>
+      </c>
+      <c r="K72">
+        <v>93.07</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>502.351</v>
+      </c>
+      <c r="O72">
+        <v>8034.6639999999998</v>
+      </c>
+      <c r="P72">
+        <v>7404.7479999999996</v>
+      </c>
+      <c r="Q72">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5416.723</v>
+      </c>
+      <c r="U72">
+        <v>91.381</v>
+      </c>
+      <c r="V72">
+        <v>243.51</v>
+      </c>
+      <c r="W72">
+        <v>-174.29</v>
+      </c>
+      <c r="X72">
+        <v>-720.50199999999995</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>99.430999999999997</v>
+      </c>
+      <c r="AA72">
+        <v>89.941999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>99.370999999999995</v>
+      </c>
+      <c r="D73">
+        <v>456.02199999999999</v>
+      </c>
+      <c r="E73">
+        <v>763.41</v>
+      </c>
+      <c r="F73">
+        <v>270.32600000000002</v>
+      </c>
+      <c r="G73">
+        <v>1336.5160000000001</v>
+      </c>
+      <c r="H73">
+        <v>13083.958000000001</v>
+      </c>
+      <c r="I73">
+        <v>409.44</v>
+      </c>
+      <c r="J73">
+        <v>6706.2629999999999</v>
+      </c>
+      <c r="K73">
+        <v>92.494</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>505.94</v>
+      </c>
+      <c r="O73">
+        <v>7443.5829999999996</v>
+      </c>
+      <c r="P73">
+        <v>6799.6170000000002</v>
+      </c>
+      <c r="Q73">
+        <v>-13.188000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5640.375</v>
+      </c>
+      <c r="U73">
+        <v>78.864000000000004</v>
+      </c>
+      <c r="V73">
+        <v>193.244</v>
+      </c>
+      <c r="W73">
+        <v>-174.12700000000001</v>
+      </c>
+      <c r="X73">
+        <v>-532.41899999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>408.52800000000002</v>
+      </c>
+      <c r="AA73">
+        <v>99.370999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>831.548</v>
+      </c>
+      <c r="D74">
+        <v>441.91899999999998</v>
+      </c>
+      <c r="E74">
+        <v>761.98900000000003</v>
+      </c>
+      <c r="F74">
+        <v>262.822</v>
+      </c>
+      <c r="G74">
+        <v>1072.9190000000001</v>
+      </c>
+      <c r="H74">
+        <v>12718.553</v>
+      </c>
+      <c r="I74">
+        <v>390.27300000000002</v>
+      </c>
+      <c r="J74">
+        <v>5478.433</v>
+      </c>
+      <c r="K74">
+        <v>90.784999999999997</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>482.18299999999999</v>
+      </c>
+      <c r="O74">
+        <v>6205.9620000000004</v>
+      </c>
+      <c r="P74">
+        <v>5569.2179999999998</v>
+      </c>
+      <c r="Q74">
+        <v>31.105</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>201</v>
+      </c>
+      <c r="T74">
+        <v>6512.5910000000003</v>
+      </c>
+      <c r="U74">
+        <v>110.79</v>
+      </c>
+      <c r="V74">
+        <v>215.791</v>
+      </c>
+      <c r="W74">
+        <v>-174.34700000000001</v>
+      </c>
+      <c r="X74">
+        <v>-1196.377</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="AA74">
+        <v>831.548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>61.47</v>
+      </c>
+      <c r="D75">
+        <v>436.154</v>
+      </c>
+      <c r="E75">
+        <v>411.95</v>
+      </c>
+      <c r="F75">
+        <v>262.709</v>
+      </c>
+      <c r="G75">
+        <v>655.58299999999997</v>
+      </c>
+      <c r="H75">
+        <v>12899.501</v>
+      </c>
+      <c r="I75">
+        <v>351.42500000000001</v>
+      </c>
+      <c r="J75">
+        <v>5673.1779999999999</v>
+      </c>
+      <c r="K75">
+        <v>89.222999999999999</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-127.437</v>
+      </c>
+      <c r="N75">
+        <v>449.40300000000002</v>
+      </c>
+      <c r="O75">
+        <v>6500.4359999999997</v>
+      </c>
+      <c r="P75">
+        <v>5917.924</v>
+      </c>
+      <c r="Q75">
+        <v>6.806</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6399.0649999999996</v>
+      </c>
+      <c r="U75">
+        <v>120.117</v>
+      </c>
+      <c r="V75">
+        <v>158.58199999999999</v>
+      </c>
+      <c r="W75">
+        <v>-177.286</v>
+      </c>
+      <c r="X75">
+        <v>8.5210000000000008</v>
+      </c>
+      <c r="Y75">
+        <v>146.9</v>
+      </c>
+      <c r="Z75">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>61.47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-13.597</v>
+      </c>
+      <c r="D76">
+        <v>491.56700000000001</v>
+      </c>
+      <c r="E76">
+        <v>410.94400000000002</v>
+      </c>
+      <c r="F76">
+        <v>276.23700000000002</v>
+      </c>
+      <c r="G76">
+        <v>852.55399999999997</v>
+      </c>
+      <c r="H76">
+        <v>13713.093000000001</v>
+      </c>
+      <c r="I76">
+        <v>370.11900000000003</v>
+      </c>
+      <c r="J76">
+        <v>6203.0079999999998</v>
+      </c>
+      <c r="K76">
+        <v>87.210999999999999</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>493.66</v>
+      </c>
+      <c r="O76">
+        <v>7093.8209999999999</v>
+      </c>
+      <c r="P76">
+        <v>6446.5519999999997</v>
+      </c>
+      <c r="Q76">
+        <v>9.4</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6619.2719999999999</v>
+      </c>
+      <c r="U76">
+        <v>130.52099999999999</v>
+      </c>
+      <c r="V76">
+        <v>221.97800000000001</v>
+      </c>
+      <c r="W76">
+        <v>-177.26400000000001</v>
+      </c>
+      <c r="X76">
+        <v>716.13699999999994</v>
+      </c>
+      <c r="Y76">
+        <v>150.096</v>
+      </c>
+      <c r="Z76">
+        <v>1.804</v>
+      </c>
+      <c r="AA76">
+        <v>-13.597</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-45.863</v>
+      </c>
+      <c r="D77">
+        <v>537.971</v>
+      </c>
+      <c r="E77">
+        <v>141.595</v>
+      </c>
+      <c r="F77">
+        <v>288.58300000000003</v>
+      </c>
+      <c r="G77">
+        <v>837.05899999999997</v>
+      </c>
+      <c r="H77">
+        <v>14010.21</v>
+      </c>
+      <c r="I77">
+        <v>430.666</v>
+      </c>
+      <c r="J77">
+        <v>6515.1890000000003</v>
+      </c>
+      <c r="K77">
+        <v>85.069000000000003</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>554.19000000000005</v>
+      </c>
+      <c r="O77">
+        <v>7486.8509999999997</v>
+      </c>
+      <c r="P77">
+        <v>6757.5559999999996</v>
+      </c>
+      <c r="Q77">
+        <v>-0.94799999999999995</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6523.3590000000004</v>
+      </c>
+      <c r="U77">
+        <v>124.99</v>
+      </c>
+      <c r="V77">
+        <v>248.041</v>
+      </c>
+      <c r="W77">
+        <v>-182.11</v>
+      </c>
+      <c r="X77">
+        <v>103.59</v>
+      </c>
+      <c r="Y77">
+        <v>153.90600000000001</v>
+      </c>
+      <c r="Z77">
+        <v>272.21199999999999</v>
+      </c>
+      <c r="AA77">
+        <v>-45.863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>129.446</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>4062.0729999999999</v>
+      </c>
+      <c r="H78">
+        <v>14032.891</v>
+      </c>
+      <c r="I78">
+        <v>270.524</v>
+      </c>
+      <c r="J78">
+        <v>5909.2520000000004</v>
+      </c>
+      <c r="K78">
+        <v>93</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>837.17200000000003</v>
+      </c>
+      <c r="O78">
+        <v>7365.4170000000004</v>
+      </c>
+      <c r="P78">
+        <v>6154.652</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>204</v>
+      </c>
+      <c r="T78">
+        <v>6667.4740000000002</v>
+      </c>
+      <c r="U78">
+        <v>80.397999999999996</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>152.4</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>279.08</v>
+      </c>
+      <c r="D79">
+        <v>585.15</v>
+      </c>
+      <c r="E79">
+        <v>129.74299999999999</v>
+      </c>
+      <c r="F79">
+        <v>194.28899999999999</v>
+      </c>
+      <c r="G79">
+        <v>1512.355</v>
+      </c>
+      <c r="H79">
+        <v>16072.679</v>
+      </c>
+      <c r="I79">
+        <v>854.779</v>
+      </c>
+      <c r="J79">
+        <v>6382.902</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-2123.9380000000001</v>
+      </c>
+      <c r="N79">
+        <v>892.95699999999999</v>
+      </c>
+      <c r="O79">
+        <v>8259.2360000000008</v>
+      </c>
+      <c r="P79">
+        <v>6546.1639999999998</v>
+      </c>
+      <c r="Q79">
+        <v>705.44200000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>7813.4430000000002</v>
+      </c>
+      <c r="U79">
+        <v>783.54200000000003</v>
+      </c>
+      <c r="V79">
+        <v>95.042000000000002</v>
+      </c>
+      <c r="W79">
+        <v>-188.5</v>
+      </c>
+      <c r="X79">
+        <v>761.42100000000005</v>
+      </c>
+      <c r="Y79">
+        <v>156.80799999999999</v>
+      </c>
+      <c r="Z79">
+        <v>85.253</v>
+      </c>
+      <c r="AA79">
+        <v>279.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>51.506</v>
+      </c>
+      <c r="D80">
+        <v>588.44000000000005</v>
+      </c>
+      <c r="E80">
+        <v>118.13800000000001</v>
+      </c>
+      <c r="F80">
+        <v>266.97199999999998</v>
+      </c>
+      <c r="G80">
+        <v>1587.261</v>
+      </c>
+      <c r="H80">
+        <v>16316.44</v>
+      </c>
+      <c r="I80">
+        <v>846.01599999999996</v>
+      </c>
+      <c r="J80">
+        <v>6724.5820000000003</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>882.93299999999999</v>
+      </c>
+      <c r="O80">
+        <v>8647.7189999999991</v>
+      </c>
+      <c r="P80">
+        <v>6905.88</v>
+      </c>
+      <c r="Q80">
+        <v>-53.457999999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>7668.7209999999995</v>
+      </c>
+      <c r="U80">
+        <v>730.95699999999999</v>
+      </c>
+      <c r="V80">
+        <v>224.78100000000001</v>
+      </c>
+      <c r="W80">
+        <v>-199.55</v>
+      </c>
+      <c r="X80">
+        <v>106.163</v>
+      </c>
+      <c r="Y80">
+        <v>177.029</v>
+      </c>
+      <c r="Z80">
+        <v>25.934999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>51.506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-63.417000000000002</v>
+      </c>
+      <c r="D81">
+        <v>597.73900000000003</v>
+      </c>
+      <c r="E81">
+        <v>107.922</v>
+      </c>
+      <c r="F81">
+        <v>277.86099999999999</v>
+      </c>
+      <c r="G81">
+        <v>2851.8069999999998</v>
+      </c>
+      <c r="H81">
+        <v>15751.821</v>
+      </c>
+      <c r="I81">
+        <v>723.35599999999999</v>
+      </c>
+      <c r="J81">
+        <v>6378.1729999999998</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>818.28599999999994</v>
+      </c>
+      <c r="O81">
+        <v>8345.5130000000008</v>
+      </c>
+      <c r="P81">
+        <v>6555.0590000000002</v>
+      </c>
+      <c r="Q81">
+        <v>-537.10299999999995</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>7406.308</v>
+      </c>
+      <c r="U81">
+        <v>197.119</v>
+      </c>
+      <c r="V81">
+        <v>219.90100000000001</v>
+      </c>
+      <c r="W81">
+        <v>-199.54599999999999</v>
+      </c>
+      <c r="X81">
+        <v>-525.79600000000005</v>
+      </c>
+      <c r="Y81">
+        <v>175.00200000000001</v>
+      </c>
+      <c r="Z81">
+        <v>10.592000000000001</v>
+      </c>
+      <c r="AA81">
+        <v>-63.417000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>431.697</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>86.974999999999994</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>246.06</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3020.0880000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>15920.089</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>271.91899999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>6155.3739999999998</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>129.59</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>920.10199999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8575.5169999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>6477.8739999999998</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>217</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>7344.5720000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>44.225999999999999</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
         <v>168.78899999999999</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>146.39400000000001</v>
       </c>
     </row>
